--- a/dumps/Stocks/Ircon International Ltd.xlsx
+++ b/dumps/Stocks/Ircon International Ltd.xlsx
@@ -16,10 +16,11 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="3">
+  <numFmts count="4">
     <numFmt numFmtId="164" formatCode="[$₹]#,##0.00"/>
     <numFmt numFmtId="165" formatCode="dd-mmm-yyyy"/>
     <numFmt numFmtId="166" formatCode="YYYY-MM-DD"/>
+    <numFmt numFmtId="167" formatCode="yyyy-mm-dd h:mm:ss"/>
   </numFmts>
   <fonts count="9">
     <font>
@@ -222,7 +223,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="101">
+  <cellXfs count="102">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="bottom"/>
     </xf>
@@ -496,6 +497,7 @@
       <alignment horizontal="center" vertical="bottom"/>
     </xf>
     <xf numFmtId="166" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -803,7 +805,7 @@
     <outlinePr summaryBelow="0" summaryRight="0"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AP984"/>
+  <dimension ref="A1:AP986"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="6" ySplit="4" topLeftCell="G5" activePane="bottomRight" state="frozen"/>
@@ -1152,43 +1154,44 @@
       <c r="AP4" s="68" t="n"/>
     </row>
     <row r="5">
-      <c r="A5" s="100" t="n">
-        <v>46000</v>
-      </c>
-      <c r="B5" s="0" t="inlineStr">
+      <c r="A5" s="101" t="n">
+        <v>45996</v>
+      </c>
+      <c r="B5" t="inlineStr">
         <is>
-          <t>BSE</t>
+          <t>NSE</t>
         </is>
       </c>
-      <c r="C5" s="0" t="inlineStr">
+      <c r="C5" t="inlineStr">
         <is>
           <t>Buy</t>
         </is>
       </c>
-      <c r="D5" s="0" t="n">
-        <v>30</v>
-      </c>
-      <c r="E5" s="0" t="n">
-        <v>149.95</v>
-      </c>
-      <c r="F5" s="0" t="n">
-        <v>4530.43</v>
-      </c>
-      <c r="G5" s="0" t="inlineStr">
+      <c r="D5" t="n">
+        <v>10</v>
+      </c>
+      <c r="E5" t="n">
+        <v>152.357</v>
+      </c>
+      <c r="F5" t="n">
+        <v>1531.17</v>
+      </c>
+      <c r="G5" t="inlineStr">
         <is>
-          <t>~</t>
+          <t>CN#252609039305</t>
         </is>
       </c>
-      <c r="H5" s="0" t="n">
-        <v>4.49</v>
-      </c>
-      <c r="I5" s="0" t="n">
-        <v>27.44</v>
+      <c r="I5" t="n">
+        <v>7.6</v>
+      </c>
+      <c r="J5">
+        <f>Index!$C$2</f>
+        <v/>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="100" t="n">
-        <v>45996</v>
+      <c r="A6" s="101" t="n">
+        <v>45982</v>
       </c>
       <c r="B6" s="0" t="inlineStr">
         <is>
@@ -1201,33 +1204,34 @@
         </is>
       </c>
       <c r="D6" s="0" t="n">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="E6" s="0" t="n">
-        <v>152.35</v>
+        <v>163.44</v>
       </c>
       <c r="F6" s="0" t="n">
-        <v>460.29</v>
+        <v>1642.6</v>
       </c>
       <c r="G6" s="0" t="inlineStr">
         <is>
-          <t>~</t>
+          <t>CN#252608495287</t>
         </is>
       </c>
-      <c r="H6" s="0" t="n">
-        <v>0.46</v>
-      </c>
       <c r="I6" s="0" t="n">
-        <v>2.78</v>
+        <v>8.199999999999999</v>
+      </c>
+      <c r="J6" s="0">
+        <f>Index!$C$2</f>
+        <v/>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="100" t="n">
-        <v>45996</v>
+        <v>46000</v>
       </c>
       <c r="B7" s="0" t="inlineStr">
         <is>
-          <t>NSE</t>
+          <t>BSE</t>
         </is>
       </c>
       <c r="C7" s="0" t="inlineStr">
@@ -1236,13 +1240,13 @@
         </is>
       </c>
       <c r="D7" s="0" t="n">
-        <v>7</v>
+        <v>30</v>
       </c>
       <c r="E7" s="0" t="n">
-        <v>152.36</v>
+        <v>149.95</v>
       </c>
       <c r="F7" s="0" t="n">
-        <v>1074.06</v>
+        <v>4530.43</v>
       </c>
       <c r="G7" s="0" t="inlineStr">
         <is>
@@ -1250,15 +1254,15 @@
         </is>
       </c>
       <c r="H7" s="0" t="n">
-        <v>1.06</v>
+        <v>4.49</v>
       </c>
       <c r="I7" s="0" t="n">
-        <v>6.48</v>
+        <v>27.44</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="100" t="n">
-        <v>45982</v>
+        <v>45996</v>
       </c>
       <c r="B8" s="0" t="inlineStr">
         <is>
@@ -1271,13 +1275,13 @@
         </is>
       </c>
       <c r="D8" s="0" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E8" s="0" t="n">
-        <v>163.44</v>
+        <v>152.35</v>
       </c>
       <c r="F8" s="0" t="n">
-        <v>164.6</v>
+        <v>460.29</v>
       </c>
       <c r="G8" s="0" t="inlineStr">
         <is>
@@ -1285,15 +1289,15 @@
         </is>
       </c>
       <c r="H8" s="0" t="n">
-        <v>0.16</v>
+        <v>0.46</v>
       </c>
       <c r="I8" s="0" t="n">
-        <v>1</v>
+        <v>2.78</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="100" t="n">
-        <v>45982</v>
+        <v>45996</v>
       </c>
       <c r="B9" s="0" t="inlineStr">
         <is>
@@ -1306,13 +1310,13 @@
         </is>
       </c>
       <c r="D9" s="0" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E9" s="0" t="n">
-        <v>163.44</v>
+        <v>152.36</v>
       </c>
       <c r="F9" s="0" t="n">
-        <v>1481.41</v>
+        <v>1074.06</v>
       </c>
       <c r="G9" s="0" t="inlineStr">
         <is>
@@ -1320,15 +1324,15 @@
         </is>
       </c>
       <c r="H9" s="0" t="n">
-        <v>1.47</v>
+        <v>1.06</v>
       </c>
       <c r="I9" s="0" t="n">
-        <v>8.98</v>
+        <v>6.48</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="100" t="n">
-        <v>45978</v>
+        <v>45982</v>
       </c>
       <c r="B10" s="0" t="inlineStr">
         <is>
@@ -1341,13 +1345,13 @@
         </is>
       </c>
       <c r="D10" s="0" t="n">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="E10" s="0" t="n">
-        <v>168.44</v>
+        <v>163.44</v>
       </c>
       <c r="F10" s="0" t="n">
-        <v>1696.31</v>
+        <v>164.6</v>
       </c>
       <c r="G10" s="0" t="inlineStr">
         <is>
@@ -1355,15 +1359,15 @@
         </is>
       </c>
       <c r="H10" s="0" t="n">
-        <v>1.69</v>
+        <v>0.16</v>
       </c>
       <c r="I10" s="0" t="n">
-        <v>10.22</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="100" t="n">
-        <v>45959</v>
+        <v>45982</v>
       </c>
       <c r="B11" s="0" t="inlineStr">
         <is>
@@ -1376,13 +1380,13 @@
         </is>
       </c>
       <c r="D11" s="0" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E11" s="0" t="n">
-        <v>169.36</v>
+        <v>163.44</v>
       </c>
       <c r="F11" s="0" t="n">
-        <v>1705.63</v>
+        <v>1481.41</v>
       </c>
       <c r="G11" s="0" t="inlineStr">
         <is>
@@ -1390,19 +1394,19 @@
         </is>
       </c>
       <c r="H11" s="0" t="n">
-        <v>1.69</v>
+        <v>1.47</v>
       </c>
       <c r="I11" s="0" t="n">
-        <v>10.34</v>
+        <v>8.98</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="100" t="n">
-        <v>45957</v>
+        <v>45978</v>
       </c>
       <c r="B12" s="0" t="inlineStr">
         <is>
-          <t>BSE</t>
+          <t>NSE</t>
         </is>
       </c>
       <c r="C12" s="0" t="inlineStr">
@@ -1411,13 +1415,13 @@
         </is>
       </c>
       <c r="D12" s="0" t="n">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="E12" s="0" t="n">
-        <v>170.6</v>
+        <v>168.44</v>
       </c>
       <c r="F12" s="0" t="n">
-        <v>3436.14</v>
+        <v>1696.31</v>
       </c>
       <c r="G12" s="0" t="inlineStr">
         <is>
@@ -1425,15 +1429,15 @@
         </is>
       </c>
       <c r="H12" s="0" t="n">
-        <v>3.42</v>
+        <v>1.69</v>
       </c>
       <c r="I12" s="0" t="n">
-        <v>20.72</v>
+        <v>10.22</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="100" t="n">
-        <v>45954</v>
+        <v>45959</v>
       </c>
       <c r="B13" s="0" t="inlineStr">
         <is>
@@ -1446,13 +1450,13 @@
         </is>
       </c>
       <c r="D13" s="0" t="n">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="E13" s="0" t="n">
-        <v>170</v>
+        <v>169.36</v>
       </c>
       <c r="F13" s="0" t="n">
-        <v>3424.09</v>
+        <v>1705.63</v>
       </c>
       <c r="G13" s="0" t="inlineStr">
         <is>
@@ -1460,19 +1464,19 @@
         </is>
       </c>
       <c r="H13" s="0" t="n">
-        <v>3.4</v>
+        <v>1.69</v>
       </c>
       <c r="I13" s="0" t="n">
-        <v>20.69</v>
+        <v>10.34</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="100" t="n">
-        <v>45950</v>
+        <v>45957</v>
       </c>
       <c r="B14" s="0" t="inlineStr">
         <is>
-          <t>NSE</t>
+          <t>BSE</t>
         </is>
       </c>
       <c r="C14" s="0" t="inlineStr">
@@ -1484,10 +1488,10 @@
         <v>20</v>
       </c>
       <c r="E14" s="0" t="n">
-        <v>167.76</v>
+        <v>170.6</v>
       </c>
       <c r="F14" s="0" t="n">
-        <v>3379</v>
+        <v>3436.14</v>
       </c>
       <c r="G14" s="0" t="inlineStr">
         <is>
@@ -1495,15 +1499,15 @@
         </is>
       </c>
       <c r="H14" s="0" t="n">
-        <v>3.36</v>
+        <v>3.42</v>
       </c>
       <c r="I14" s="0" t="n">
-        <v>20.44</v>
+        <v>20.72</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="100" t="n">
-        <v>45924</v>
+        <v>45954</v>
       </c>
       <c r="B15" s="0" t="inlineStr">
         <is>
@@ -1516,13 +1520,13 @@
         </is>
       </c>
       <c r="D15" s="0" t="n">
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="E15" s="0" t="n">
-        <v>176.71</v>
+        <v>170</v>
       </c>
       <c r="F15" s="0" t="n">
-        <v>889.8099999999999</v>
+        <v>3424.09</v>
       </c>
       <c r="G15" s="0" t="inlineStr">
         <is>
@@ -1530,15 +1534,15 @@
         </is>
       </c>
       <c r="H15" s="0" t="n">
-        <v>0.89</v>
+        <v>3.4</v>
       </c>
       <c r="I15" s="0" t="n">
-        <v>5.37</v>
+        <v>20.69</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="100" t="n">
-        <v>45924</v>
+        <v>45950</v>
       </c>
       <c r="B16" s="0" t="inlineStr">
         <is>
@@ -1551,13 +1555,13 @@
         </is>
       </c>
       <c r="D16" s="0" t="n">
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="E16" s="0" t="n">
-        <v>176.71</v>
+        <v>167.76</v>
       </c>
       <c r="F16" s="0" t="n">
-        <v>889.8099999999999</v>
+        <v>3379</v>
       </c>
       <c r="G16" s="0" t="inlineStr">
         <is>
@@ -1565,15 +1569,15 @@
         </is>
       </c>
       <c r="H16" s="0" t="n">
-        <v>0.89</v>
+        <v>3.36</v>
       </c>
       <c r="I16" s="0" t="n">
-        <v>5.37</v>
+        <v>20.44</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="100" t="n">
-        <v>45903</v>
+        <v>45924</v>
       </c>
       <c r="B17" s="0" t="inlineStr">
         <is>
@@ -1586,13 +1590,13 @@
         </is>
       </c>
       <c r="D17" s="0" t="n">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="E17" s="0" t="n">
-        <v>174.75</v>
+        <v>176.71</v>
       </c>
       <c r="F17" s="0" t="n">
-        <v>3519.7</v>
+        <v>889.8099999999999</v>
       </c>
       <c r="G17" s="0" t="inlineStr">
         <is>
@@ -1600,211 +1604,85 @@
         </is>
       </c>
       <c r="H17" s="0" t="n">
-        <v>3.51</v>
+        <v>0.89</v>
       </c>
       <c r="I17" s="0" t="n">
-        <v>21.19</v>
+        <v>5.37</v>
       </c>
     </row>
     <row r="18">
-      <c r="A18" s="38" t="n">
-        <v>45950</v>
-      </c>
-      <c r="B18" s="39" t="inlineStr">
+      <c r="A18" s="100" t="n">
+        <v>45924</v>
+      </c>
+      <c r="B18" s="0" t="inlineStr">
         <is>
           <t>NSE</t>
         </is>
       </c>
-      <c r="C18" s="40" t="inlineStr">
+      <c r="C18" s="0" t="inlineStr">
         <is>
           <t>Buy</t>
         </is>
       </c>
-      <c r="D18" s="52" t="n">
-        <v>20</v>
-      </c>
-      <c r="E18" s="43" t="n">
-        <v>168.95</v>
-      </c>
-      <c r="F18" s="43">
-        <f>D5*E5</f>
-        <v/>
-      </c>
-      <c r="G18" s="39" t="inlineStr">
+      <c r="D18" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="E18" s="0" t="n">
+        <v>176.71</v>
+      </c>
+      <c r="F18" s="0" t="n">
+        <v>889.8099999999999</v>
+      </c>
+      <c r="G18" s="0" t="inlineStr">
         <is>
           <t>~</t>
         </is>
       </c>
-      <c r="H18" s="44" t="n"/>
-      <c r="I18" s="44" t="n"/>
-      <c r="J18" s="45">
-        <f>Index!$C$2</f>
-        <v/>
-      </c>
-      <c r="K18" s="46">
-        <f>IF(AND( C5="Buy", ISBLANK(W5), B5&lt;&gt;"DIV"), L5/sum(F5:I5), "")</f>
-        <v/>
-      </c>
-      <c r="L18" s="45">
-        <f>IF(AND( C5="Buy", ISBLANK(W5), B5&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J5*D5)-(E5*D5)), "")</f>
-        <v/>
-      </c>
-      <c r="M18" s="45">
-        <f>IF(AND( C5="Buy", ISBLANK(W5), B5&lt;&gt;"DIV"), ((E5*D5)+L5), "")</f>
-        <v/>
-      </c>
-      <c r="N18" s="47">
-        <f>IF(AND( C5="Buy", ISBLANK(W5), B5&lt;&gt;"DIV"), D5, "")</f>
-        <v/>
-      </c>
-      <c r="O18" s="46">
-        <f>IF(AND( C5="Buy", ISBLANK(W5), B5&lt;&gt;"DIV", NOW()-A5 &lt; 365), P5/sum(F5:I5), "")</f>
-        <v/>
-      </c>
-      <c r="P18" s="45">
-        <f>IF(AND( C5="Buy", ISBLANK(W5), B5&lt;&gt;"DIV", NOW()-A5 &lt; 365), (1-Index!$F$2*2)*((J5*D5)-(E5*D5)), "")</f>
-        <v/>
-      </c>
-      <c r="Q18" s="45">
-        <f>IF(AND( C5="Buy", ISBLANK(W5), B5&lt;&gt;"DIV", NOW()-A5 &lt; 365), ((E5*D5)+P5), "")</f>
-        <v/>
-      </c>
-      <c r="R18" s="45">
-        <f>IF(AND( C5="Buy", ISBLANK(W5), B5&lt;&gt;"DIV", NOW()-A5 &lt; 365), D5, "")</f>
-        <v/>
-      </c>
-      <c r="S18" s="48">
-        <f>IF(AND( C5="Buy", ISBLANK(W5), B5&lt;&gt;"DIV", NOW()-A5 &gt; 365), T5/sum(F5:I5), "")</f>
-        <v/>
-      </c>
-      <c r="T18" s="49">
-        <f>IF(AND( C5="Buy", ISBLANK(W5), B5&lt;&gt;"DIV", NOW()-A5 &gt; 365), (1-Index!$F$2*2)*((J5*D5)-(E5*D5)), "")</f>
-        <v/>
-      </c>
-      <c r="U18" s="49">
-        <f>IF(AND( C5="Buy", ISBLANK(W5), B5&lt;&gt;"DIV", NOW()-A5 &gt; 365), ((E5*D5)+T5), "")</f>
-        <v/>
-      </c>
-      <c r="V18" s="49">
-        <f>IF(AND( C5="Buy", ISBLANK(W5), B5&lt;&gt;"DIV", NOW()-A5 &gt; 365), D5, "")</f>
-        <v/>
-      </c>
-      <c r="W18" s="49" t="n"/>
-      <c r="X18" s="49" t="n"/>
-      <c r="Y18" s="48">
-        <f>IF(AND( C5="Buy", W5&lt;&gt;"", AA5&lt;&gt;"", B5&lt;&gt;"DIV"), Z5/sum(F5:I5), "")</f>
-        <v/>
-      </c>
-      <c r="Z18" s="49" t="n"/>
-      <c r="AA18" s="49" t="n"/>
-      <c r="AB18" s="50" t="n"/>
-      <c r="AC18" s="49">
-        <f>if(B5="DIV", F5,"")</f>
-        <v/>
-      </c>
-      <c r="AD18" s="51" t="n"/>
+      <c r="H18" s="0" t="n">
+        <v>0.89</v>
+      </c>
+      <c r="I18" s="0" t="n">
+        <v>5.37</v>
+      </c>
     </row>
     <row r="19">
-      <c r="A19" s="38" t="n">
-        <v>45924</v>
-      </c>
-      <c r="B19" s="39" t="inlineStr">
+      <c r="A19" s="100" t="n">
+        <v>45903</v>
+      </c>
+      <c r="B19" s="0" t="inlineStr">
         <is>
           <t>NSE</t>
         </is>
       </c>
-      <c r="C19" s="40" t="inlineStr">
+      <c r="C19" s="0" t="inlineStr">
         <is>
           <t>Buy</t>
         </is>
       </c>
-      <c r="D19" s="52" t="n">
-        <v>5</v>
-      </c>
-      <c r="E19" s="43" t="n">
-        <v>177.96</v>
-      </c>
-      <c r="F19" s="43">
-        <f>(D6*E6)+I6</f>
-        <v/>
-      </c>
-      <c r="G19" s="39" t="inlineStr">
+      <c r="D19" s="0" t="n">
+        <v>20</v>
+      </c>
+      <c r="E19" s="0" t="n">
+        <v>174.75</v>
+      </c>
+      <c r="F19" s="0" t="n">
+        <v>3519.7</v>
+      </c>
+      <c r="G19" s="0" t="inlineStr">
         <is>
           <t>~</t>
         </is>
       </c>
-      <c r="H19" s="44" t="n"/>
-      <c r="I19" s="44" t="n"/>
-      <c r="J19" s="45">
-        <f>Index!$C$2</f>
-        <v/>
-      </c>
-      <c r="K19" s="46">
-        <f>IF(AND( C6="Buy", ISBLANK(W6), B6&lt;&gt;"DIV"), L6/sum(F6:I6), "")</f>
-        <v/>
-      </c>
-      <c r="L19" s="45">
-        <f>IF(AND( C6="Buy", ISBLANK(W6), B6&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J6*D6)-(E6*D6)), "")</f>
-        <v/>
-      </c>
-      <c r="M19" s="45">
-        <f>IF(AND( C6="Buy", ISBLANK(W6), B6&lt;&gt;"DIV"), ((E6*D6)+L6), "")</f>
-        <v/>
-      </c>
-      <c r="N19" s="47">
-        <f>IF(AND( C6="Buy", ISBLANK(W6), B6&lt;&gt;"DIV"), D6, "")</f>
-        <v/>
-      </c>
-      <c r="O19" s="46">
-        <f>IF(AND( C6="Buy", ISBLANK(W6), B6&lt;&gt;"DIV", NOW()-A6 &lt; 365), P6/sum(F6:I6), "")</f>
-        <v/>
-      </c>
-      <c r="P19" s="45">
-        <f>IF(AND( C6="Buy", ISBLANK(W6), B6&lt;&gt;"DIV", NOW()-A6 &lt; 365), (1-Index!$F$2*2)*((J6*D6)-(E6*D6)), "")</f>
-        <v/>
-      </c>
-      <c r="Q19" s="45">
-        <f>IF(AND( C6="Buy", ISBLANK(W6), B6&lt;&gt;"DIV", NOW()-A6 &lt; 365), ((E6*D6)+P6), "")</f>
-        <v/>
-      </c>
-      <c r="R19" s="45">
-        <f>IF(AND( C6="Buy", ISBLANK(W6), B6&lt;&gt;"DIV", NOW()-A6 &lt; 365), D6, "")</f>
-        <v/>
-      </c>
-      <c r="S19" s="48">
-        <f>IF(AND( C6="Buy", ISBLANK(W6), B6&lt;&gt;"DIV", NOW()-A6 &gt; 365), T6/sum(F6:I6), "")</f>
-        <v/>
-      </c>
-      <c r="T19" s="49">
-        <f>IF(AND( C6="Buy", ISBLANK(W6), B6&lt;&gt;"DIV", NOW()-A6 &gt; 365), (1-Index!$F$2*2)*((J6*D6)-(E6*D6)), "")</f>
-        <v/>
-      </c>
-      <c r="U19" s="49">
-        <f>IF(AND( C6="Buy", ISBLANK(W6), B6&lt;&gt;"DIV", NOW()-A6 &gt; 365), ((E6*D6)+T6), "")</f>
-        <v/>
-      </c>
-      <c r="V19" s="49">
-        <f>IF(AND( C6="Buy", ISBLANK(W6), B6&lt;&gt;"DIV", NOW()-A6 &gt; 365), D6, "")</f>
-        <v/>
-      </c>
-      <c r="W19" s="49" t="n"/>
-      <c r="X19" s="49" t="n"/>
-      <c r="Y19" s="48">
-        <f>IF(AND( C6="Buy", W6&lt;&gt;"", AA6&lt;&gt;"", B6&lt;&gt;"DIV"), Z6/sum(F6:I6), "")</f>
-        <v/>
-      </c>
-      <c r="Z19" s="49" t="n"/>
-      <c r="AA19" s="49" t="n"/>
-      <c r="AB19" s="50" t="n"/>
-      <c r="AC19" s="49">
-        <f>if(B6="DIV", F6,"")</f>
-        <v/>
-      </c>
-      <c r="AD19" s="51" t="n"/>
+      <c r="H19" s="0" t="n">
+        <v>3.51</v>
+      </c>
+      <c r="I19" s="0" t="n">
+        <v>21.19</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" s="38" t="n">
-        <v>45924</v>
+        <v>45950</v>
       </c>
       <c r="B20" s="39" t="inlineStr">
         <is>
@@ -1817,13 +1695,13 @@
         </is>
       </c>
       <c r="D20" s="52" t="n">
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="E20" s="43" t="n">
-        <v>177.96</v>
+        <v>168.95</v>
       </c>
       <c r="F20" s="43">
-        <f>(D7*E7)+I7</f>
+        <f>D5*E5</f>
         <v/>
       </c>
       <c r="G20" s="39" t="inlineStr">
@@ -1838,75 +1716,75 @@
         <v/>
       </c>
       <c r="K20" s="46">
-        <f>IF(AND( C7="Buy", ISBLANK(W7), B7&lt;&gt;"DIV"), L7/sum(F7:I7), "")</f>
+        <f>IF(AND( C5="Buy", ISBLANK(W5), B5&lt;&gt;"DIV"), L5/sum(F5:I5), "")</f>
         <v/>
       </c>
       <c r="L20" s="45">
-        <f>IF(AND( C7="Buy", ISBLANK(W7), B7&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J7*D7)-(E7*D7)), "")</f>
+        <f>IF(AND( C5="Buy", ISBLANK(W5), B5&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J5*D5)-(E5*D5)), "")</f>
         <v/>
       </c>
       <c r="M20" s="45">
-        <f>IF(AND( C7="Buy", ISBLANK(W7), B7&lt;&gt;"DIV"), ((E7*D7)+L7), "")</f>
+        <f>IF(AND( C5="Buy", ISBLANK(W5), B5&lt;&gt;"DIV"), ((E5*D5)+L5), "")</f>
         <v/>
       </c>
       <c r="N20" s="47">
-        <f>IF(AND( C7="Buy", ISBLANK(W7), B7&lt;&gt;"DIV"), D7, "")</f>
+        <f>IF(AND( C5="Buy", ISBLANK(W5), B5&lt;&gt;"DIV"), D5, "")</f>
         <v/>
       </c>
       <c r="O20" s="46">
-        <f>IF(AND( C7="Buy", ISBLANK(W7), B7&lt;&gt;"DIV", NOW()-A7 &lt; 365), P7/sum(F7:I7), "")</f>
+        <f>IF(AND( C5="Buy", ISBLANK(W5), B5&lt;&gt;"DIV", NOW()-A5 &lt; 365), P5/sum(F5:I5), "")</f>
         <v/>
       </c>
       <c r="P20" s="45">
-        <f>IF(AND( C7="Buy", ISBLANK(W7), B7&lt;&gt;"DIV", NOW()-A7 &lt; 365), (1-Index!$F$2*2)*((J7*D7)-(E7*D7)), "")</f>
+        <f>IF(AND( C5="Buy", ISBLANK(W5), B5&lt;&gt;"DIV", NOW()-A5 &lt; 365), (1-Index!$F$2*2)*((J5*D5)-(E5*D5)), "")</f>
         <v/>
       </c>
       <c r="Q20" s="45">
-        <f>IF(AND( C7="Buy", ISBLANK(W7), B7&lt;&gt;"DIV", NOW()-A7 &lt; 365), ((E7*D7)+P7), "")</f>
+        <f>IF(AND( C5="Buy", ISBLANK(W5), B5&lt;&gt;"DIV", NOW()-A5 &lt; 365), ((E5*D5)+P5), "")</f>
         <v/>
       </c>
       <c r="R20" s="45">
-        <f>IF(AND( C7="Buy", ISBLANK(W7), B7&lt;&gt;"DIV", NOW()-A7 &lt; 365), D7, "")</f>
+        <f>IF(AND( C5="Buy", ISBLANK(W5), B5&lt;&gt;"DIV", NOW()-A5 &lt; 365), D5, "")</f>
         <v/>
       </c>
       <c r="S20" s="48">
-        <f>IF(AND( C7="Buy", ISBLANK(W7), B7&lt;&gt;"DIV", NOW()-A7 &gt; 365), T7/sum(F7:I7), "")</f>
+        <f>IF(AND( C5="Buy", ISBLANK(W5), B5&lt;&gt;"DIV", NOW()-A5 &gt; 365), T5/sum(F5:I5), "")</f>
         <v/>
       </c>
       <c r="T20" s="49">
-        <f>IF(AND( C7="Buy", ISBLANK(W7), B7&lt;&gt;"DIV", NOW()-A7 &gt; 365), (1-Index!$F$2*2)*((J7*D7)-(E7*D7)), "")</f>
+        <f>IF(AND( C5="Buy", ISBLANK(W5), B5&lt;&gt;"DIV", NOW()-A5 &gt; 365), (1-Index!$F$2*2)*((J5*D5)-(E5*D5)), "")</f>
         <v/>
       </c>
       <c r="U20" s="49">
-        <f>IF(AND( C7="Buy", ISBLANK(W7), B7&lt;&gt;"DIV", NOW()-A7 &gt; 365), ((E7*D7)+T7), "")</f>
+        <f>IF(AND( C5="Buy", ISBLANK(W5), B5&lt;&gt;"DIV", NOW()-A5 &gt; 365), ((E5*D5)+T5), "")</f>
         <v/>
       </c>
       <c r="V20" s="49">
-        <f>IF(AND( C7="Buy", ISBLANK(W7), B7&lt;&gt;"DIV", NOW()-A7 &gt; 365), D7, "")</f>
+        <f>IF(AND( C5="Buy", ISBLANK(W5), B5&lt;&gt;"DIV", NOW()-A5 &gt; 365), D5, "")</f>
         <v/>
       </c>
       <c r="W20" s="49" t="n"/>
       <c r="X20" s="49" t="n"/>
       <c r="Y20" s="48">
-        <f>IF(AND( C7="Buy", W7&lt;&gt;"", AA7&lt;&gt;"", B7&lt;&gt;"DIV"), Z7/sum(F7:I7), "")</f>
+        <f>IF(AND( C5="Buy", W5&lt;&gt;"", AA5&lt;&gt;"", B5&lt;&gt;"DIV"), Z5/sum(F5:I5), "")</f>
         <v/>
       </c>
       <c r="Z20" s="49" t="n"/>
       <c r="AA20" s="49" t="n"/>
       <c r="AB20" s="50" t="n"/>
       <c r="AC20" s="49">
-        <f>if(B7="DIV", F7,"")</f>
+        <f>if(B5="DIV", F5,"")</f>
         <v/>
       </c>
       <c r="AD20" s="51" t="n"/>
     </row>
     <row r="21">
       <c r="A21" s="38" t="n">
-        <v>45911</v>
-      </c>
-      <c r="B21" s="53" t="inlineStr">
+        <v>45924</v>
+      </c>
+      <c r="B21" s="39" t="inlineStr">
         <is>
-          <t>DIV</t>
+          <t>NSE</t>
         </is>
       </c>
       <c r="C21" s="40" t="inlineStr">
@@ -1915,13 +1793,14 @@
         </is>
       </c>
       <c r="D21" s="52" t="n">
-        <v>470</v>
+        <v>5</v>
       </c>
       <c r="E21" s="43" t="n">
-        <v>1</v>
-      </c>
-      <c r="F21" s="43" t="n">
-        <v>470</v>
+        <v>177.96</v>
+      </c>
+      <c r="F21" s="43">
+        <f>(D6*E6)+I6</f>
+        <v/>
       </c>
       <c r="G21" s="39" t="inlineStr">
         <is>
@@ -1934,274 +1813,267 @@
         <f>Index!$C$2</f>
         <v/>
       </c>
-      <c r="K21" s="48">
-        <f>IF(AND( C8="Buy", ISBLANK(W8), B8&lt;&gt;"DIV"), L8/sum(F8:I8), "")</f>
+      <c r="K21" s="46">
+        <f>IF(AND( C6="Buy", ISBLANK(W6), B6&lt;&gt;"DIV"), L6/sum(F6:I6), "")</f>
         <v/>
       </c>
-      <c r="L21" s="49">
-        <f>IF(AND( C8="Buy", ISBLANK(W8), B8&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J8*D8)-(E8*D8)), "")</f>
+      <c r="L21" s="45">
+        <f>IF(AND( C6="Buy", ISBLANK(W6), B6&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J6*D6)-(E6*D6)), "")</f>
         <v/>
       </c>
-      <c r="M21" s="49">
-        <f>IF(AND( C8="Buy", ISBLANK(W8), B8&lt;&gt;"DIV"), ((E8*D8)+L8), "")</f>
+      <c r="M21" s="45">
+        <f>IF(AND( C6="Buy", ISBLANK(W6), B6&lt;&gt;"DIV"), ((E6*D6)+L6), "")</f>
         <v/>
       </c>
-      <c r="N21" s="50">
-        <f>IF(AND( C8="Buy", ISBLANK(W8), B8&lt;&gt;"DIV"), D8, "")</f>
+      <c r="N21" s="47">
+        <f>IF(AND( C6="Buy", ISBLANK(W6), B6&lt;&gt;"DIV"), D6, "")</f>
         <v/>
       </c>
-      <c r="O21" s="48">
-        <f>IF(AND( C8="Buy", ISBLANK(W8), B8&lt;&gt;"DIV", NOW()-A8 &lt; 365), P8/sum(F8:I8), "")</f>
+      <c r="O21" s="46">
+        <f>IF(AND( C6="Buy", ISBLANK(W6), B6&lt;&gt;"DIV", NOW()-A6 &lt; 365), P6/sum(F6:I6), "")</f>
         <v/>
       </c>
-      <c r="P21" s="49">
-        <f>IF(AND( C8="Buy", ISBLANK(W8), B8&lt;&gt;"DIV", NOW()-A8 &lt; 365), (1-Index!$F$2*2)*((J8*D8)-(E8*D8)), "")</f>
+      <c r="P21" s="45">
+        <f>IF(AND( C6="Buy", ISBLANK(W6), B6&lt;&gt;"DIV", NOW()-A6 &lt; 365), (1-Index!$F$2*2)*((J6*D6)-(E6*D6)), "")</f>
         <v/>
       </c>
-      <c r="Q21" s="49">
-        <f>IF(AND( C8="Buy", ISBLANK(W8), B8&lt;&gt;"DIV", NOW()-A8 &lt; 365), ((E8*D8)+P8), "")</f>
+      <c r="Q21" s="45">
+        <f>IF(AND( C6="Buy", ISBLANK(W6), B6&lt;&gt;"DIV", NOW()-A6 &lt; 365), ((E6*D6)+P6), "")</f>
         <v/>
       </c>
-      <c r="R21" s="49">
-        <f>IF(AND( C8="Buy", ISBLANK(W8), B8&lt;&gt;"DIV", NOW()-A8 &lt; 365), D8, "")</f>
+      <c r="R21" s="45">
+        <f>IF(AND( C6="Buy", ISBLANK(W6), B6&lt;&gt;"DIV", NOW()-A6 &lt; 365), D6, "")</f>
         <v/>
       </c>
       <c r="S21" s="48">
-        <f>IF(AND( C8="Buy", ISBLANK(W8), B8&lt;&gt;"DIV", NOW()-A8 &gt; 365), T8/sum(F8:I8), "")</f>
+        <f>IF(AND( C6="Buy", ISBLANK(W6), B6&lt;&gt;"DIV", NOW()-A6 &gt; 365), T6/sum(F6:I6), "")</f>
         <v/>
       </c>
       <c r="T21" s="49">
-        <f>IF(AND( C8="Buy", ISBLANK(W8), B8&lt;&gt;"DIV", NOW()-A8 &gt; 365), (1-Index!$F$2*2)*((J8*D8)-(E8*D8)), "")</f>
+        <f>IF(AND( C6="Buy", ISBLANK(W6), B6&lt;&gt;"DIV", NOW()-A6 &gt; 365), (1-Index!$F$2*2)*((J6*D6)-(E6*D6)), "")</f>
         <v/>
       </c>
       <c r="U21" s="49">
-        <f>IF(AND( C8="Buy", ISBLANK(W8), B8&lt;&gt;"DIV", NOW()-A8 &gt; 365), ((E8*D8)+T8), "")</f>
+        <f>IF(AND( C6="Buy", ISBLANK(W6), B6&lt;&gt;"DIV", NOW()-A6 &gt; 365), ((E6*D6)+T6), "")</f>
         <v/>
       </c>
       <c r="V21" s="49">
-        <f>IF(AND( C8="Buy", ISBLANK(W8), B8&lt;&gt;"DIV", NOW()-A8 &gt; 365), D8, "")</f>
+        <f>IF(AND( C6="Buy", ISBLANK(W6), B6&lt;&gt;"DIV", NOW()-A6 &gt; 365), D6, "")</f>
         <v/>
       </c>
       <c r="W21" s="49" t="n"/>
       <c r="X21" s="49" t="n"/>
       <c r="Y21" s="48">
-        <f>IF(AND( C8="Buy", W8&lt;&gt;"", AA8&lt;&gt;"", B8&lt;&gt;"DIV"), Z8/sum(F8:I8), "")</f>
+        <f>IF(AND( C6="Buy", W6&lt;&gt;"", AA6&lt;&gt;"", B6&lt;&gt;"DIV"), Z6/sum(F6:I6), "")</f>
         <v/>
       </c>
       <c r="Z21" s="49" t="n"/>
       <c r="AA21" s="49" t="n"/>
       <c r="AB21" s="50" t="n"/>
-      <c r="AC21" s="45">
-        <f>if(B8="DIV", F8,"")</f>
+      <c r="AC21" s="49">
+        <f>if(B6="DIV", F6,"")</f>
         <v/>
       </c>
       <c r="AD21" s="51" t="n"/>
     </row>
     <row r="22">
       <c r="A22" s="38" t="n">
-        <v>45903</v>
-      </c>
-      <c r="B22" s="54" t="inlineStr">
+        <v>45924</v>
+      </c>
+      <c r="B22" s="39" t="inlineStr">
         <is>
           <t>NSE</t>
         </is>
       </c>
-      <c r="C22" s="54" t="inlineStr">
+      <c r="C22" s="40" t="inlineStr">
         <is>
           <t>Buy</t>
         </is>
       </c>
-      <c r="D22" s="55" t="n">
-        <v>20</v>
-      </c>
-      <c r="E22" s="56" t="n">
-        <v>175.99</v>
-      </c>
-      <c r="F22" s="56" t="n">
-        <v>3519.7</v>
-      </c>
-      <c r="G22" s="54" t="inlineStr">
+      <c r="D22" s="52" t="n">
+        <v>5</v>
+      </c>
+      <c r="E22" s="43" t="n">
+        <v>177.96</v>
+      </c>
+      <c r="F22" s="43">
+        <f>(D7*E7)+I7</f>
+        <v/>
+      </c>
+      <c r="G22" s="39" t="inlineStr">
         <is>
           <t>~</t>
         </is>
       </c>
-      <c r="H22" s="55" t="n">
-        <v>3.51</v>
-      </c>
-      <c r="I22" s="55" t="n">
-        <v>21.19</v>
-      </c>
-      <c r="J22" s="57">
+      <c r="H22" s="44" t="n"/>
+      <c r="I22" s="44" t="n"/>
+      <c r="J22" s="45">
         <f>Index!$C$2</f>
         <v/>
       </c>
-      <c r="K22" s="58">
-        <f>IF(AND( C9="Buy", ISBLANK(W9), B9&lt;&gt;"DIV"), L9/sum(F9:I9), "")</f>
+      <c r="K22" s="46">
+        <f>IF(AND( C7="Buy", ISBLANK(W7), B7&lt;&gt;"DIV"), L7/sum(F7:I7), "")</f>
         <v/>
       </c>
       <c r="L22" s="45">
-        <f>IF(AND( C9="Buy", ISBLANK(W9), B9&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J9*D9)-(E9*D9)), "")</f>
+        <f>IF(AND( C7="Buy", ISBLANK(W7), B7&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J7*D7)-(E7*D7)), "")</f>
         <v/>
       </c>
       <c r="M22" s="45">
-        <f>IF(AND( C9="Buy", ISBLANK(W9), B9&lt;&gt;"DIV"), ((E9*D9)+L9), "")</f>
+        <f>IF(AND( C7="Buy", ISBLANK(W7), B7&lt;&gt;"DIV"), ((E7*D7)+L7), "")</f>
         <v/>
       </c>
       <c r="N22" s="47">
-        <f>IF(AND( C9="Buy", ISBLANK(W9), B9&lt;&gt;"DIV"), D9, "")</f>
+        <f>IF(AND( C7="Buy", ISBLANK(W7), B7&lt;&gt;"DIV"), D7, "")</f>
         <v/>
       </c>
-      <c r="O22" s="58">
-        <f>IF(AND( C9="Buy", ISBLANK(W9), B9&lt;&gt;"DIV", NOW()-A9 &lt; 365), P9/sum(F9:I9), "")</f>
+      <c r="O22" s="46">
+        <f>IF(AND( C7="Buy", ISBLANK(W7), B7&lt;&gt;"DIV", NOW()-A7 &lt; 365), P7/sum(F7:I7), "")</f>
         <v/>
       </c>
       <c r="P22" s="45">
-        <f>IF(AND( C9="Buy", ISBLANK(W9), B9&lt;&gt;"DIV", NOW()-A9 &lt; 365), (1-Index!$F$2*2)*((J9*D9)-(E9*D9)), "")</f>
+        <f>IF(AND( C7="Buy", ISBLANK(W7), B7&lt;&gt;"DIV", NOW()-A7 &lt; 365), (1-Index!$F$2*2)*((J7*D7)-(E7*D7)), "")</f>
         <v/>
       </c>
       <c r="Q22" s="45">
-        <f>IF(AND( C9="Buy", ISBLANK(W9), B9&lt;&gt;"DIV", NOW()-A9 &lt; 365), ((E9*D9)+P9), "")</f>
+        <f>IF(AND( C7="Buy", ISBLANK(W7), B7&lt;&gt;"DIV", NOW()-A7 &lt; 365), ((E7*D7)+P7), "")</f>
         <v/>
       </c>
       <c r="R22" s="45">
-        <f>IF(AND( C9="Buy", ISBLANK(W9), B9&lt;&gt;"DIV", NOW()-A9 &lt; 365), D9, "")</f>
+        <f>IF(AND( C7="Buy", ISBLANK(W7), B7&lt;&gt;"DIV", NOW()-A7 &lt; 365), D7, "")</f>
         <v/>
       </c>
-      <c r="S22" s="59">
-        <f>IF(AND( C9="Buy", ISBLANK(W9), B9&lt;&gt;"DIV", NOW()-A9 &gt; 365), T9/sum(F9:I9), "")</f>
+      <c r="S22" s="48">
+        <f>IF(AND( C7="Buy", ISBLANK(W7), B7&lt;&gt;"DIV", NOW()-A7 &gt; 365), T7/sum(F7:I7), "")</f>
         <v/>
       </c>
-      <c r="T22" s="60">
-        <f>IF(AND( C9="Buy", ISBLANK(W9), B9&lt;&gt;"DIV", NOW()-A9 &gt; 365), (1-Index!$F$2*2)*((J9*D9)-(E9*D9)), "")</f>
+      <c r="T22" s="49">
+        <f>IF(AND( C7="Buy", ISBLANK(W7), B7&lt;&gt;"DIV", NOW()-A7 &gt; 365), (1-Index!$F$2*2)*((J7*D7)-(E7*D7)), "")</f>
         <v/>
       </c>
-      <c r="U22" s="60">
-        <f>IF(AND( C9="Buy", ISBLANK(W9), B9&lt;&gt;"DIV", NOW()-A9 &gt; 365), ((E9*D9)+T9), "")</f>
+      <c r="U22" s="49">
+        <f>IF(AND( C7="Buy", ISBLANK(W7), B7&lt;&gt;"DIV", NOW()-A7 &gt; 365), ((E7*D7)+T7), "")</f>
         <v/>
       </c>
-      <c r="V22" s="60">
-        <f>IF(AND( C9="Buy", ISBLANK(W9), B9&lt;&gt;"DIV", NOW()-A9 &gt; 365), D9, "")</f>
+      <c r="V22" s="49">
+        <f>IF(AND( C7="Buy", ISBLANK(W7), B7&lt;&gt;"DIV", NOW()-A7 &gt; 365), D7, "")</f>
         <v/>
       </c>
-      <c r="W22" s="60" t="n"/>
-      <c r="X22" s="60" t="n"/>
-      <c r="Y22" s="59">
-        <f>IF(AND( C9="Buy", W9&lt;&gt;"", AA9&lt;&gt;"", B9&lt;&gt;"DIV"), Z9/sum(F9:I9), "")</f>
+      <c r="W22" s="49" t="n"/>
+      <c r="X22" s="49" t="n"/>
+      <c r="Y22" s="48">
+        <f>IF(AND( C7="Buy", W7&lt;&gt;"", AA7&lt;&gt;"", B7&lt;&gt;"DIV"), Z7/sum(F7:I7), "")</f>
         <v/>
       </c>
-      <c r="Z22" s="60" t="n"/>
-      <c r="AA22" s="60" t="n"/>
-      <c r="AB22" s="61" t="n"/>
-      <c r="AC22" s="45">
-        <f>if(B9="DIV", F9,"")</f>
+      <c r="Z22" s="49" t="n"/>
+      <c r="AA22" s="49" t="n"/>
+      <c r="AB22" s="50" t="n"/>
+      <c r="AC22" s="49">
+        <f>if(B7="DIV", F7,"")</f>
         <v/>
       </c>
-      <c r="AD22" s="62" t="n"/>
+      <c r="AD22" s="51" t="n"/>
     </row>
     <row r="23">
       <c r="A23" s="38" t="n">
-        <v>45820</v>
-      </c>
-      <c r="B23" s="54" t="inlineStr">
+        <v>45911</v>
+      </c>
+      <c r="B23" s="53" t="inlineStr">
         <is>
-          <t>NSE</t>
+          <t>DIV</t>
         </is>
       </c>
-      <c r="C23" s="54" t="inlineStr">
+      <c r="C23" s="40" t="inlineStr">
         <is>
           <t>Buy</t>
         </is>
       </c>
-      <c r="D23" s="55" t="n">
-        <v>50</v>
-      </c>
-      <c r="E23" s="56" t="n">
-        <v>216.86</v>
-      </c>
-      <c r="F23" s="56" t="n">
-        <v>10842.95</v>
-      </c>
-      <c r="G23" s="54" t="inlineStr">
+      <c r="D23" s="52" t="n">
+        <v>470</v>
+      </c>
+      <c r="E23" s="43" t="n">
+        <v>1</v>
+      </c>
+      <c r="F23" s="43" t="n">
+        <v>470</v>
+      </c>
+      <c r="G23" s="39" t="inlineStr">
         <is>
           <t>~</t>
         </is>
       </c>
-      <c r="H23" s="55" t="n">
-        <v>10.75</v>
-      </c>
-      <c r="I23" s="55" t="n">
-        <v>65.7</v>
-      </c>
-      <c r="J23" s="57">
+      <c r="H23" s="44" t="n"/>
+      <c r="I23" s="44" t="n"/>
+      <c r="J23" s="45">
         <f>Index!$C$2</f>
         <v/>
       </c>
-      <c r="K23" s="58">
-        <f>IF(AND( C10="Buy", ISBLANK(W10), B10&lt;&gt;"DIV"), L10/sum(F10:I10), "")</f>
+      <c r="K23" s="48">
+        <f>IF(AND( C8="Buy", ISBLANK(W8), B8&lt;&gt;"DIV"), L8/sum(F8:I8), "")</f>
         <v/>
       </c>
-      <c r="L23" s="45">
-        <f>IF(AND( C10="Buy", ISBLANK(W10), B10&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J10*D10)-(E10*D10)), "")</f>
+      <c r="L23" s="49">
+        <f>IF(AND( C8="Buy", ISBLANK(W8), B8&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J8*D8)-(E8*D8)), "")</f>
         <v/>
       </c>
-      <c r="M23" s="45">
-        <f>IF(AND( C10="Buy", ISBLANK(W10), B10&lt;&gt;"DIV"), ((E10*D10)+L10), "")</f>
+      <c r="M23" s="49">
+        <f>IF(AND( C8="Buy", ISBLANK(W8), B8&lt;&gt;"DIV"), ((E8*D8)+L8), "")</f>
         <v/>
       </c>
-      <c r="N23" s="47">
-        <f>IF(AND( C10="Buy", ISBLANK(W10), B10&lt;&gt;"DIV"), D10, "")</f>
+      <c r="N23" s="50">
+        <f>IF(AND( C8="Buy", ISBLANK(W8), B8&lt;&gt;"DIV"), D8, "")</f>
         <v/>
       </c>
-      <c r="O23" s="58">
-        <f>IF(AND( C10="Buy", ISBLANK(W10), B10&lt;&gt;"DIV", NOW()-A10 &lt; 365), P10/sum(F10:I10), "")</f>
+      <c r="O23" s="48">
+        <f>IF(AND( C8="Buy", ISBLANK(W8), B8&lt;&gt;"DIV", NOW()-A8 &lt; 365), P8/sum(F8:I8), "")</f>
         <v/>
       </c>
-      <c r="P23" s="45">
-        <f>IF(AND( C10="Buy", ISBLANK(W10), B10&lt;&gt;"DIV", NOW()-A10 &lt; 365), (1-Index!$F$2*2)*((J10*D10)-(E10*D10)), "")</f>
+      <c r="P23" s="49">
+        <f>IF(AND( C8="Buy", ISBLANK(W8), B8&lt;&gt;"DIV", NOW()-A8 &lt; 365), (1-Index!$F$2*2)*((J8*D8)-(E8*D8)), "")</f>
         <v/>
       </c>
-      <c r="Q23" s="45">
-        <f>IF(AND( C10="Buy", ISBLANK(W10), B10&lt;&gt;"DIV", NOW()-A10 &lt; 365), ((E10*D10)+P10), "")</f>
+      <c r="Q23" s="49">
+        <f>IF(AND( C8="Buy", ISBLANK(W8), B8&lt;&gt;"DIV", NOW()-A8 &lt; 365), ((E8*D8)+P8), "")</f>
         <v/>
       </c>
-      <c r="R23" s="45">
-        <f>IF(AND( C10="Buy", ISBLANK(W10), B10&lt;&gt;"DIV", NOW()-A10 &lt; 365), D10, "")</f>
+      <c r="R23" s="49">
+        <f>IF(AND( C8="Buy", ISBLANK(W8), B8&lt;&gt;"DIV", NOW()-A8 &lt; 365), D8, "")</f>
         <v/>
       </c>
-      <c r="S23" s="59">
-        <f>IF(AND( C10="Buy", ISBLANK(W10), B10&lt;&gt;"DIV", NOW()-A10 &gt; 365), T10/sum(F10:I10), "")</f>
+      <c r="S23" s="48">
+        <f>IF(AND( C8="Buy", ISBLANK(W8), B8&lt;&gt;"DIV", NOW()-A8 &gt; 365), T8/sum(F8:I8), "")</f>
         <v/>
       </c>
-      <c r="T23" s="60">
-        <f>IF(AND( C10="Buy", ISBLANK(W10), B10&lt;&gt;"DIV", NOW()-A10 &gt; 365), (1-Index!$F$2*2)*((J10*D10)-(E10*D10)), "")</f>
+      <c r="T23" s="49">
+        <f>IF(AND( C8="Buy", ISBLANK(W8), B8&lt;&gt;"DIV", NOW()-A8 &gt; 365), (1-Index!$F$2*2)*((J8*D8)-(E8*D8)), "")</f>
         <v/>
       </c>
-      <c r="U23" s="60">
-        <f>IF(AND( C10="Buy", ISBLANK(W10), B10&lt;&gt;"DIV", NOW()-A10 &gt; 365), ((E10*D10)+T10), "")</f>
+      <c r="U23" s="49">
+        <f>IF(AND( C8="Buy", ISBLANK(W8), B8&lt;&gt;"DIV", NOW()-A8 &gt; 365), ((E8*D8)+T8), "")</f>
         <v/>
       </c>
-      <c r="V23" s="60">
-        <f>IF(AND( C10="Buy", ISBLANK(W10), B10&lt;&gt;"DIV", NOW()-A10 &gt; 365), D10, "")</f>
+      <c r="V23" s="49">
+        <f>IF(AND( C8="Buy", ISBLANK(W8), B8&lt;&gt;"DIV", NOW()-A8 &gt; 365), D8, "")</f>
         <v/>
       </c>
-      <c r="W23" s="60" t="n"/>
-      <c r="X23" s="60" t="n"/>
-      <c r="Y23" s="59">
-        <f>IF(AND( C10="Buy", W10&lt;&gt;"", AA10&lt;&gt;"", B10&lt;&gt;"DIV"), Z10/sum(F10:I10), "")</f>
+      <c r="W23" s="49" t="n"/>
+      <c r="X23" s="49" t="n"/>
+      <c r="Y23" s="48">
+        <f>IF(AND( C8="Buy", W8&lt;&gt;"", AA8&lt;&gt;"", B8&lt;&gt;"DIV"), Z8/sum(F8:I8), "")</f>
         <v/>
       </c>
-      <c r="Z23" s="60" t="n"/>
-      <c r="AA23" s="60" t="n"/>
-      <c r="AB23" s="61" t="n"/>
+      <c r="Z23" s="49" t="n"/>
+      <c r="AA23" s="49" t="n"/>
+      <c r="AB23" s="50" t="n"/>
       <c r="AC23" s="45">
-        <f>if(B10="DIV", F10,"")</f>
+        <f>if(B8="DIV", F8,"")</f>
         <v/>
       </c>
-      <c r="AD23" s="62" t="n"/>
+      <c r="AD23" s="51" t="n"/>
     </row>
     <row r="24">
       <c r="A24" s="38" t="n">
-        <v>45811</v>
+        <v>45903</v>
       </c>
       <c r="B24" s="54" t="inlineStr">
         <is>
@@ -2214,13 +2086,13 @@
         </is>
       </c>
       <c r="D24" s="55" t="n">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="E24" s="56" t="n">
-        <v>195.43</v>
+        <v>175.99</v>
       </c>
       <c r="F24" s="56" t="n">
-        <v>4885.87</v>
+        <v>3519.7</v>
       </c>
       <c r="G24" s="54" t="inlineStr">
         <is>
@@ -2228,283 +2100,283 @@
         </is>
       </c>
       <c r="H24" s="55" t="n">
-        <v>4.85</v>
+        <v>3.51</v>
       </c>
       <c r="I24" s="55" t="n">
-        <v>29.52</v>
+        <v>21.19</v>
       </c>
       <c r="J24" s="57">
         <f>Index!$C$2</f>
         <v/>
       </c>
       <c r="K24" s="58">
-        <f>IF(AND( C11="Buy", ISBLANK(W11), B11&lt;&gt;"DIV"), L11/sum(F11:I11), "")</f>
+        <f>IF(AND( C9="Buy", ISBLANK(W9), B9&lt;&gt;"DIV"), L9/sum(F9:I9), "")</f>
         <v/>
       </c>
       <c r="L24" s="45">
-        <f>IF(AND( C11="Buy", ISBLANK(W11), B11&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J11*D11)-(E11*D11)), "")</f>
+        <f>IF(AND( C9="Buy", ISBLANK(W9), B9&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J9*D9)-(E9*D9)), "")</f>
         <v/>
       </c>
       <c r="M24" s="45">
-        <f>IF(AND( C11="Buy", ISBLANK(W11), B11&lt;&gt;"DIV"), ((E11*D11)+L11), "")</f>
+        <f>IF(AND( C9="Buy", ISBLANK(W9), B9&lt;&gt;"DIV"), ((E9*D9)+L9), "")</f>
         <v/>
       </c>
       <c r="N24" s="47">
-        <f>IF(AND( C11="Buy", ISBLANK(W11), B11&lt;&gt;"DIV"), D11, "")</f>
+        <f>IF(AND( C9="Buy", ISBLANK(W9), B9&lt;&gt;"DIV"), D9, "")</f>
         <v/>
       </c>
       <c r="O24" s="58">
-        <f>IF(AND( C11="Buy", ISBLANK(W11), B11&lt;&gt;"DIV", NOW()-A11 &lt; 365), P11/sum(F11:I11), "")</f>
+        <f>IF(AND( C9="Buy", ISBLANK(W9), B9&lt;&gt;"DIV", NOW()-A9 &lt; 365), P9/sum(F9:I9), "")</f>
         <v/>
       </c>
       <c r="P24" s="45">
-        <f>IF(AND( C11="Buy", ISBLANK(W11), B11&lt;&gt;"DIV", NOW()-A11 &lt; 365), (1-Index!$F$2*2)*((J11*D11)-(E11*D11)), "")</f>
+        <f>IF(AND( C9="Buy", ISBLANK(W9), B9&lt;&gt;"DIV", NOW()-A9 &lt; 365), (1-Index!$F$2*2)*((J9*D9)-(E9*D9)), "")</f>
         <v/>
       </c>
       <c r="Q24" s="45">
-        <f>IF(AND( C11="Buy", ISBLANK(W11), B11&lt;&gt;"DIV", NOW()-A11 &lt; 365), ((E11*D11)+P11), "")</f>
+        <f>IF(AND( C9="Buy", ISBLANK(W9), B9&lt;&gt;"DIV", NOW()-A9 &lt; 365), ((E9*D9)+P9), "")</f>
         <v/>
       </c>
       <c r="R24" s="45">
-        <f>IF(AND( C11="Buy", ISBLANK(W11), B11&lt;&gt;"DIV", NOW()-A11 &lt; 365), D11, "")</f>
+        <f>IF(AND( C9="Buy", ISBLANK(W9), B9&lt;&gt;"DIV", NOW()-A9 &lt; 365), D9, "")</f>
         <v/>
       </c>
       <c r="S24" s="59">
-        <f>IF(AND( C11="Buy", ISBLANK(W11), B11&lt;&gt;"DIV", NOW()-A11 &gt; 365), T11/sum(F11:I11), "")</f>
+        <f>IF(AND( C9="Buy", ISBLANK(W9), B9&lt;&gt;"DIV", NOW()-A9 &gt; 365), T9/sum(F9:I9), "")</f>
         <v/>
       </c>
       <c r="T24" s="60">
-        <f>IF(AND( C11="Buy", ISBLANK(W11), B11&lt;&gt;"DIV", NOW()-A11 &gt; 365), (1-Index!$F$2*2)*((J11*D11)-(E11*D11)), "")</f>
+        <f>IF(AND( C9="Buy", ISBLANK(W9), B9&lt;&gt;"DIV", NOW()-A9 &gt; 365), (1-Index!$F$2*2)*((J9*D9)-(E9*D9)), "")</f>
         <v/>
       </c>
       <c r="U24" s="60">
-        <f>IF(AND( C11="Buy", ISBLANK(W11), B11&lt;&gt;"DIV", NOW()-A11 &gt; 365), ((E11*D11)+T11), "")</f>
+        <f>IF(AND( C9="Buy", ISBLANK(W9), B9&lt;&gt;"DIV", NOW()-A9 &gt; 365), ((E9*D9)+T9), "")</f>
         <v/>
       </c>
       <c r="V24" s="60">
-        <f>IF(AND( C11="Buy", ISBLANK(W11), B11&lt;&gt;"DIV", NOW()-A11 &gt; 365), D11, "")</f>
+        <f>IF(AND( C9="Buy", ISBLANK(W9), B9&lt;&gt;"DIV", NOW()-A9 &gt; 365), D9, "")</f>
         <v/>
       </c>
       <c r="W24" s="60" t="n"/>
       <c r="X24" s="60" t="n"/>
       <c r="Y24" s="59">
-        <f>IF(AND( C11="Buy", W11&lt;&gt;"", AA11&lt;&gt;"", B11&lt;&gt;"DIV"), Z11/sum(F11:I11), "")</f>
+        <f>IF(AND( C9="Buy", W9&lt;&gt;"", AA9&lt;&gt;"", B9&lt;&gt;"DIV"), Z9/sum(F9:I9), "")</f>
         <v/>
       </c>
       <c r="Z24" s="60" t="n"/>
       <c r="AA24" s="60" t="n"/>
       <c r="AB24" s="61" t="n"/>
       <c r="AC24" s="45">
-        <f>if(B11="DIV", F11,"")</f>
+        <f>if(B9="DIV", F9,"")</f>
         <v/>
       </c>
       <c r="AD24" s="62" t="n"/>
     </row>
     <row r="25">
-      <c r="A25" s="63" t="n">
-        <v>45722</v>
-      </c>
-      <c r="B25" s="64" t="inlineStr">
+      <c r="A25" s="38" t="n">
+        <v>45820</v>
+      </c>
+      <c r="B25" s="54" t="inlineStr">
         <is>
           <t>NSE</t>
         </is>
       </c>
-      <c r="C25" s="64" t="inlineStr">
+      <c r="C25" s="54" t="inlineStr">
         <is>
           <t>Buy</t>
         </is>
       </c>
-      <c r="D25" s="52" t="n">
+      <c r="D25" s="55" t="n">
         <v>50</v>
       </c>
-      <c r="E25" s="43" t="n">
-        <v>150.85</v>
-      </c>
-      <c r="F25" s="43" t="n">
-        <v>7542.66</v>
-      </c>
-      <c r="G25" s="64" t="inlineStr">
+      <c r="E25" s="56" t="n">
+        <v>216.86</v>
+      </c>
+      <c r="F25" s="56" t="n">
+        <v>10842.95</v>
+      </c>
+      <c r="G25" s="54" t="inlineStr">
         <is>
           <t>~</t>
         </is>
       </c>
-      <c r="H25" s="52" t="n">
-        <v>7.53</v>
-      </c>
-      <c r="I25" s="52" t="n">
-        <v>45.63</v>
+      <c r="H25" s="55" t="n">
+        <v>10.75</v>
+      </c>
+      <c r="I25" s="55" t="n">
+        <v>65.7</v>
       </c>
       <c r="J25" s="57">
         <f>Index!$C$2</f>
         <v/>
       </c>
       <c r="K25" s="58">
-        <f>IF(AND( C12="Buy", ISBLANK(W12), B12&lt;&gt;"DIV"), L12/sum(F12:I12), "")</f>
+        <f>IF(AND( C10="Buy", ISBLANK(W10), B10&lt;&gt;"DIV"), L10/sum(F10:I10), "")</f>
         <v/>
       </c>
       <c r="L25" s="45">
-        <f>IF(AND( C12="Buy", ISBLANK(W12), B12&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J12*D12)-(E12*D12)), "")</f>
+        <f>IF(AND( C10="Buy", ISBLANK(W10), B10&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J10*D10)-(E10*D10)), "")</f>
         <v/>
       </c>
       <c r="M25" s="45">
-        <f>IF(AND( C12="Buy", ISBLANK(W12), B12&lt;&gt;"DIV"), ((E12*D12)+L12), "")</f>
+        <f>IF(AND( C10="Buy", ISBLANK(W10), B10&lt;&gt;"DIV"), ((E10*D10)+L10), "")</f>
         <v/>
       </c>
       <c r="N25" s="47">
-        <f>IF(AND( C12="Buy", ISBLANK(W12), B12&lt;&gt;"DIV"), D12, "")</f>
+        <f>IF(AND( C10="Buy", ISBLANK(W10), B10&lt;&gt;"DIV"), D10, "")</f>
         <v/>
       </c>
       <c r="O25" s="58">
-        <f>IF(AND( C12="Buy", ISBLANK(W12), B12&lt;&gt;"DIV", NOW()-A12 &lt; 365), P12/sum(F12:I12), "")</f>
+        <f>IF(AND( C10="Buy", ISBLANK(W10), B10&lt;&gt;"DIV", NOW()-A10 &lt; 365), P10/sum(F10:I10), "")</f>
         <v/>
       </c>
       <c r="P25" s="45">
-        <f>IF(AND( C12="Buy", ISBLANK(W12), B12&lt;&gt;"DIV", NOW()-A12 &lt; 365), (1-Index!$F$2*2)*((J12*D12)-(E12*D12)), "")</f>
+        <f>IF(AND( C10="Buy", ISBLANK(W10), B10&lt;&gt;"DIV", NOW()-A10 &lt; 365), (1-Index!$F$2*2)*((J10*D10)-(E10*D10)), "")</f>
         <v/>
       </c>
       <c r="Q25" s="45">
-        <f>IF(AND( C12="Buy", ISBLANK(W12), B12&lt;&gt;"DIV", NOW()-A12 &lt; 365), ((E12*D12)+P12), "")</f>
+        <f>IF(AND( C10="Buy", ISBLANK(W10), B10&lt;&gt;"DIV", NOW()-A10 &lt; 365), ((E10*D10)+P10), "")</f>
         <v/>
       </c>
       <c r="R25" s="45">
-        <f>IF(AND( C12="Buy", ISBLANK(W12), B12&lt;&gt;"DIV", NOW()-A12 &lt; 365), D12, "")</f>
+        <f>IF(AND( C10="Buy", ISBLANK(W10), B10&lt;&gt;"DIV", NOW()-A10 &lt; 365), D10, "")</f>
         <v/>
       </c>
       <c r="S25" s="59">
-        <f>IF(AND( C12="Buy", ISBLANK(W12), B12&lt;&gt;"DIV", NOW()-A12 &gt; 365), T12/sum(F12:I12), "")</f>
+        <f>IF(AND( C10="Buy", ISBLANK(W10), B10&lt;&gt;"DIV", NOW()-A10 &gt; 365), T10/sum(F10:I10), "")</f>
         <v/>
       </c>
       <c r="T25" s="60">
-        <f>IF(AND( C12="Buy", ISBLANK(W12), B12&lt;&gt;"DIV", NOW()-A12 &gt; 365), (1-Index!$F$2*2)*((J12*D12)-(E12*D12)), "")</f>
+        <f>IF(AND( C10="Buy", ISBLANK(W10), B10&lt;&gt;"DIV", NOW()-A10 &gt; 365), (1-Index!$F$2*2)*((J10*D10)-(E10*D10)), "")</f>
         <v/>
       </c>
       <c r="U25" s="60">
-        <f>IF(AND( C12="Buy", ISBLANK(W12), B12&lt;&gt;"DIV", NOW()-A12 &gt; 365), ((E12*D12)+T12), "")</f>
+        <f>IF(AND( C10="Buy", ISBLANK(W10), B10&lt;&gt;"DIV", NOW()-A10 &gt; 365), ((E10*D10)+T10), "")</f>
         <v/>
       </c>
       <c r="V25" s="60">
-        <f>IF(AND( C12="Buy", ISBLANK(W12), B12&lt;&gt;"DIV", NOW()-A12 &gt; 365), D12, "")</f>
+        <f>IF(AND( C10="Buy", ISBLANK(W10), B10&lt;&gt;"DIV", NOW()-A10 &gt; 365), D10, "")</f>
         <v/>
       </c>
       <c r="W25" s="60" t="n"/>
       <c r="X25" s="60" t="n"/>
       <c r="Y25" s="59">
-        <f>IF(AND( C12="Buy", W12&lt;&gt;"", AA12&lt;&gt;"", B12&lt;&gt;"DIV"), Z12/sum(F12:I12), "")</f>
+        <f>IF(AND( C10="Buy", W10&lt;&gt;"", AA10&lt;&gt;"", B10&lt;&gt;"DIV"), Z10/sum(F10:I10), "")</f>
         <v/>
       </c>
       <c r="Z25" s="60" t="n"/>
       <c r="AA25" s="60" t="n"/>
       <c r="AB25" s="61" t="n"/>
       <c r="AC25" s="45">
-        <f>if(B12="DIV", F12,"")</f>
+        <f>if(B10="DIV", F10,"")</f>
         <v/>
       </c>
       <c r="AD25" s="62" t="n"/>
     </row>
     <row r="26">
-      <c r="A26" s="63" t="n">
-        <v>45716</v>
-      </c>
-      <c r="B26" s="64" t="inlineStr">
+      <c r="A26" s="38" t="n">
+        <v>45811</v>
+      </c>
+      <c r="B26" s="54" t="inlineStr">
         <is>
           <t>NSE</t>
         </is>
       </c>
-      <c r="C26" s="64" t="inlineStr">
+      <c r="C26" s="54" t="inlineStr">
         <is>
           <t>Buy</t>
         </is>
       </c>
-      <c r="D26" s="52" t="n">
-        <v>5</v>
-      </c>
-      <c r="E26" s="43" t="n">
-        <v>144.18</v>
-      </c>
-      <c r="F26" s="43" t="n">
-        <v>720.89</v>
-      </c>
-      <c r="G26" s="64" t="inlineStr">
+      <c r="D26" s="55" t="n">
+        <v>25</v>
+      </c>
+      <c r="E26" s="56" t="n">
+        <v>195.43</v>
+      </c>
+      <c r="F26" s="56" t="n">
+        <v>4885.87</v>
+      </c>
+      <c r="G26" s="54" t="inlineStr">
         <is>
           <t>~</t>
         </is>
       </c>
-      <c r="H26" s="52" t="n">
-        <v>0.72</v>
-      </c>
-      <c r="I26" s="52" t="n">
-        <v>4.37</v>
+      <c r="H26" s="55" t="n">
+        <v>4.85</v>
+      </c>
+      <c r="I26" s="55" t="n">
+        <v>29.52</v>
       </c>
       <c r="J26" s="57">
         <f>Index!$C$2</f>
         <v/>
       </c>
       <c r="K26" s="58">
-        <f>IF(AND( C13="Buy", ISBLANK(W13), B13&lt;&gt;"DIV"), L13/sum(F13:I13), "")</f>
+        <f>IF(AND( C11="Buy", ISBLANK(W11), B11&lt;&gt;"DIV"), L11/sum(F11:I11), "")</f>
         <v/>
       </c>
       <c r="L26" s="45">
-        <f>IF(AND( C13="Buy", ISBLANK(W13), B13&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J13*D13)-(E13*D13)), "")</f>
+        <f>IF(AND( C11="Buy", ISBLANK(W11), B11&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J11*D11)-(E11*D11)), "")</f>
         <v/>
       </c>
       <c r="M26" s="45">
-        <f>IF(AND( C13="Buy", ISBLANK(W13), B13&lt;&gt;"DIV"), ((E13*D13)+L13), "")</f>
+        <f>IF(AND( C11="Buy", ISBLANK(W11), B11&lt;&gt;"DIV"), ((E11*D11)+L11), "")</f>
         <v/>
       </c>
       <c r="N26" s="47">
-        <f>IF(AND( C13="Buy", ISBLANK(W13), B13&lt;&gt;"DIV"), D13, "")</f>
+        <f>IF(AND( C11="Buy", ISBLANK(W11), B11&lt;&gt;"DIV"), D11, "")</f>
         <v/>
       </c>
       <c r="O26" s="58">
-        <f>IF(AND( C13="Buy", ISBLANK(W13), B13&lt;&gt;"DIV", NOW()-A13 &lt; 365), P13/sum(F13:I13), "")</f>
+        <f>IF(AND( C11="Buy", ISBLANK(W11), B11&lt;&gt;"DIV", NOW()-A11 &lt; 365), P11/sum(F11:I11), "")</f>
         <v/>
       </c>
       <c r="P26" s="45">
-        <f>IF(AND( C13="Buy", ISBLANK(W13), B13&lt;&gt;"DIV", NOW()-A13 &lt; 365), (1-Index!$F$2*2)*((J13*D13)-(E13*D13)), "")</f>
+        <f>IF(AND( C11="Buy", ISBLANK(W11), B11&lt;&gt;"DIV", NOW()-A11 &lt; 365), (1-Index!$F$2*2)*((J11*D11)-(E11*D11)), "")</f>
         <v/>
       </c>
       <c r="Q26" s="45">
-        <f>IF(AND( C13="Buy", ISBLANK(W13), B13&lt;&gt;"DIV", NOW()-A13 &lt; 365), ((E13*D13)+P13), "")</f>
+        <f>IF(AND( C11="Buy", ISBLANK(W11), B11&lt;&gt;"DIV", NOW()-A11 &lt; 365), ((E11*D11)+P11), "")</f>
         <v/>
       </c>
       <c r="R26" s="45">
-        <f>IF(AND( C13="Buy", ISBLANK(W13), B13&lt;&gt;"DIV", NOW()-A13 &lt; 365), D13, "")</f>
+        <f>IF(AND( C11="Buy", ISBLANK(W11), B11&lt;&gt;"DIV", NOW()-A11 &lt; 365), D11, "")</f>
         <v/>
       </c>
       <c r="S26" s="59">
-        <f>IF(AND( C13="Buy", ISBLANK(W13), B13&lt;&gt;"DIV", NOW()-A13 &gt; 365), T13/sum(F13:I13), "")</f>
+        <f>IF(AND( C11="Buy", ISBLANK(W11), B11&lt;&gt;"DIV", NOW()-A11 &gt; 365), T11/sum(F11:I11), "")</f>
         <v/>
       </c>
       <c r="T26" s="60">
-        <f>IF(AND( C13="Buy", ISBLANK(W13), B13&lt;&gt;"DIV", NOW()-A13 &gt; 365), (1-Index!$F$2*2)*((J13*D13)-(E13*D13)), "")</f>
+        <f>IF(AND( C11="Buy", ISBLANK(W11), B11&lt;&gt;"DIV", NOW()-A11 &gt; 365), (1-Index!$F$2*2)*((J11*D11)-(E11*D11)), "")</f>
         <v/>
       </c>
       <c r="U26" s="60">
-        <f>IF(AND( C13="Buy", ISBLANK(W13), B13&lt;&gt;"DIV", NOW()-A13 &gt; 365), ((E13*D13)+T13), "")</f>
+        <f>IF(AND( C11="Buy", ISBLANK(W11), B11&lt;&gt;"DIV", NOW()-A11 &gt; 365), ((E11*D11)+T11), "")</f>
         <v/>
       </c>
       <c r="V26" s="60">
-        <f>IF(AND( C13="Buy", ISBLANK(W13), B13&lt;&gt;"DIV", NOW()-A13 &gt; 365), D13, "")</f>
+        <f>IF(AND( C11="Buy", ISBLANK(W11), B11&lt;&gt;"DIV", NOW()-A11 &gt; 365), D11, "")</f>
         <v/>
       </c>
       <c r="W26" s="60" t="n"/>
       <c r="X26" s="60" t="n"/>
       <c r="Y26" s="59">
-        <f>IF(AND( C13="Buy", W13&lt;&gt;"", AA13&lt;&gt;"", B13&lt;&gt;"DIV"), Z13/sum(F13:I13), "")</f>
+        <f>IF(AND( C11="Buy", W11&lt;&gt;"", AA11&lt;&gt;"", B11&lt;&gt;"DIV"), Z11/sum(F11:I11), "")</f>
         <v/>
       </c>
       <c r="Z26" s="60" t="n"/>
       <c r="AA26" s="60" t="n"/>
       <c r="AB26" s="61" t="n"/>
       <c r="AC26" s="45">
-        <f>if(B13="DIV", F13,"")</f>
+        <f>if(B11="DIV", F11,"")</f>
         <v/>
       </c>
       <c r="AD26" s="62" t="n"/>
     </row>
     <row r="27">
       <c r="A27" s="63" t="n">
-        <v>45712</v>
+        <v>45722</v>
       </c>
       <c r="B27" s="64" t="inlineStr">
         <is>
@@ -2517,13 +2389,13 @@
         </is>
       </c>
       <c r="D27" s="52" t="n">
-        <v>20</v>
+        <v>50</v>
       </c>
       <c r="E27" s="43" t="n">
-        <v>155.44</v>
+        <v>150.85</v>
       </c>
       <c r="F27" s="43" t="n">
-        <v>3108.83</v>
+        <v>7542.66</v>
       </c>
       <c r="G27" s="64" t="inlineStr">
         <is>
@@ -2531,81 +2403,81 @@
         </is>
       </c>
       <c r="H27" s="52" t="n">
-        <v>3.08</v>
+        <v>7.53</v>
       </c>
       <c r="I27" s="52" t="n">
-        <v>18.75</v>
+        <v>45.63</v>
       </c>
       <c r="J27" s="57">
         <f>Index!$C$2</f>
         <v/>
       </c>
       <c r="K27" s="58">
-        <f>IF(AND( C14="Buy", ISBLANK(W14), B14&lt;&gt;"DIV"), L14/sum(F14:I14), "")</f>
+        <f>IF(AND( C12="Buy", ISBLANK(W12), B12&lt;&gt;"DIV"), L12/sum(F12:I12), "")</f>
         <v/>
       </c>
       <c r="L27" s="45">
-        <f>IF(AND( C14="Buy", ISBLANK(W14), B14&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J14*D14)-(E14*D14)), "")</f>
+        <f>IF(AND( C12="Buy", ISBLANK(W12), B12&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J12*D12)-(E12*D12)), "")</f>
         <v/>
       </c>
       <c r="M27" s="45">
-        <f>IF(AND( C14="Buy", ISBLANK(W14), B14&lt;&gt;"DIV"), ((E14*D14)+L14), "")</f>
+        <f>IF(AND( C12="Buy", ISBLANK(W12), B12&lt;&gt;"DIV"), ((E12*D12)+L12), "")</f>
         <v/>
       </c>
       <c r="N27" s="47">
-        <f>IF(AND( C14="Buy", ISBLANK(W14), B14&lt;&gt;"DIV"), D14, "")</f>
+        <f>IF(AND( C12="Buy", ISBLANK(W12), B12&lt;&gt;"DIV"), D12, "")</f>
         <v/>
       </c>
       <c r="O27" s="58">
-        <f>IF(AND( C14="Buy", ISBLANK(W14), B14&lt;&gt;"DIV", NOW()-A14 &lt; 365), P14/sum(F14:I14), "")</f>
+        <f>IF(AND( C12="Buy", ISBLANK(W12), B12&lt;&gt;"DIV", NOW()-A12 &lt; 365), P12/sum(F12:I12), "")</f>
         <v/>
       </c>
       <c r="P27" s="45">
-        <f>IF(AND( C14="Buy", ISBLANK(W14), B14&lt;&gt;"DIV", NOW()-A14 &lt; 365), (1-Index!$F$2*2)*((J14*D14)-(E14*D14)), "")</f>
+        <f>IF(AND( C12="Buy", ISBLANK(W12), B12&lt;&gt;"DIV", NOW()-A12 &lt; 365), (1-Index!$F$2*2)*((J12*D12)-(E12*D12)), "")</f>
         <v/>
       </c>
       <c r="Q27" s="45">
-        <f>IF(AND( C14="Buy", ISBLANK(W14), B14&lt;&gt;"DIV", NOW()-A14 &lt; 365), ((E14*D14)+P14), "")</f>
+        <f>IF(AND( C12="Buy", ISBLANK(W12), B12&lt;&gt;"DIV", NOW()-A12 &lt; 365), ((E12*D12)+P12), "")</f>
         <v/>
       </c>
       <c r="R27" s="45">
-        <f>IF(AND( C14="Buy", ISBLANK(W14), B14&lt;&gt;"DIV", NOW()-A14 &lt; 365), D14, "")</f>
+        <f>IF(AND( C12="Buy", ISBLANK(W12), B12&lt;&gt;"DIV", NOW()-A12 &lt; 365), D12, "")</f>
         <v/>
       </c>
       <c r="S27" s="59">
-        <f>IF(AND( C14="Buy", ISBLANK(W14), B14&lt;&gt;"DIV", NOW()-A14 &gt; 365), T14/sum(F14:I14), "")</f>
+        <f>IF(AND( C12="Buy", ISBLANK(W12), B12&lt;&gt;"DIV", NOW()-A12 &gt; 365), T12/sum(F12:I12), "")</f>
         <v/>
       </c>
       <c r="T27" s="60">
-        <f>IF(AND( C14="Buy", ISBLANK(W14), B14&lt;&gt;"DIV", NOW()-A14 &gt; 365), (1-Index!$F$2*2)*((J14*D14)-(E14*D14)), "")</f>
+        <f>IF(AND( C12="Buy", ISBLANK(W12), B12&lt;&gt;"DIV", NOW()-A12 &gt; 365), (1-Index!$F$2*2)*((J12*D12)-(E12*D12)), "")</f>
         <v/>
       </c>
       <c r="U27" s="60">
-        <f>IF(AND( C14="Buy", ISBLANK(W14), B14&lt;&gt;"DIV", NOW()-A14 &gt; 365), ((E14*D14)+T14), "")</f>
+        <f>IF(AND( C12="Buy", ISBLANK(W12), B12&lt;&gt;"DIV", NOW()-A12 &gt; 365), ((E12*D12)+T12), "")</f>
         <v/>
       </c>
       <c r="V27" s="60">
-        <f>IF(AND( C14="Buy", ISBLANK(W14), B14&lt;&gt;"DIV", NOW()-A14 &gt; 365), D14, "")</f>
+        <f>IF(AND( C12="Buy", ISBLANK(W12), B12&lt;&gt;"DIV", NOW()-A12 &gt; 365), D12, "")</f>
         <v/>
       </c>
       <c r="W27" s="60" t="n"/>
       <c r="X27" s="60" t="n"/>
       <c r="Y27" s="59">
-        <f>IF(AND( C14="Buy", W14&lt;&gt;"", AA14&lt;&gt;"", B14&lt;&gt;"DIV"), Z14/sum(F14:I14), "")</f>
+        <f>IF(AND( C12="Buy", W12&lt;&gt;"", AA12&lt;&gt;"", B12&lt;&gt;"DIV"), Z12/sum(F12:I12), "")</f>
         <v/>
       </c>
       <c r="Z27" s="60" t="n"/>
       <c r="AA27" s="60" t="n"/>
       <c r="AB27" s="61" t="n"/>
       <c r="AC27" s="45">
-        <f>if(B14="DIV", F14,"")</f>
+        <f>if(B12="DIV", F12,"")</f>
         <v/>
       </c>
       <c r="AD27" s="62" t="n"/>
     </row>
     <row r="28">
       <c r="A28" s="63" t="n">
-        <v>45705</v>
+        <v>45716</v>
       </c>
       <c r="B28" s="64" t="inlineStr">
         <is>
@@ -2618,13 +2490,13 @@
         </is>
       </c>
       <c r="D28" s="52" t="n">
-        <v>100</v>
+        <v>5</v>
       </c>
       <c r="E28" s="43" t="n">
-        <v>155.09</v>
+        <v>144.18</v>
       </c>
       <c r="F28" s="43" t="n">
-        <v>15509.13</v>
+        <v>720.89</v>
       </c>
       <c r="G28" s="64" t="inlineStr">
         <is>
@@ -2632,85 +2504,85 @@
         </is>
       </c>
       <c r="H28" s="52" t="n">
-        <v>15.38</v>
+        <v>0.72</v>
       </c>
       <c r="I28" s="52" t="n">
-        <v>93.75</v>
+        <v>4.37</v>
       </c>
       <c r="J28" s="57">
         <f>Index!$C$2</f>
         <v/>
       </c>
       <c r="K28" s="58">
-        <f>IF(AND( C15="Buy", ISBLANK(W15), B15&lt;&gt;"DIV"), L15/sum(F15:I15), "")</f>
+        <f>IF(AND( C13="Buy", ISBLANK(W13), B13&lt;&gt;"DIV"), L13/sum(F13:I13), "")</f>
         <v/>
       </c>
       <c r="L28" s="45">
-        <f>IF(AND( C15="Buy", ISBLANK(W15), B15&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J15*D15)-(E15*D15)), "")</f>
+        <f>IF(AND( C13="Buy", ISBLANK(W13), B13&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J13*D13)-(E13*D13)), "")</f>
         <v/>
       </c>
       <c r="M28" s="45">
-        <f>IF(AND( C15="Buy", ISBLANK(W15), B15&lt;&gt;"DIV"), ((E15*D15)+L15), "")</f>
+        <f>IF(AND( C13="Buy", ISBLANK(W13), B13&lt;&gt;"DIV"), ((E13*D13)+L13), "")</f>
         <v/>
       </c>
       <c r="N28" s="47">
-        <f>IF(AND( C15="Buy", ISBLANK(W15), B15&lt;&gt;"DIV"), D15, "")</f>
+        <f>IF(AND( C13="Buy", ISBLANK(W13), B13&lt;&gt;"DIV"), D13, "")</f>
         <v/>
       </c>
       <c r="O28" s="58">
-        <f>IF(AND( C15="Buy", ISBLANK(W15), B15&lt;&gt;"DIV", NOW()-A15 &lt; 365), P15/sum(F15:I15), "")</f>
+        <f>IF(AND( C13="Buy", ISBLANK(W13), B13&lt;&gt;"DIV", NOW()-A13 &lt; 365), P13/sum(F13:I13), "")</f>
         <v/>
       </c>
       <c r="P28" s="45">
-        <f>IF(AND( C15="Buy", ISBLANK(W15), B15&lt;&gt;"DIV", NOW()-A15 &lt; 365), (1-Index!$F$2*2)*((J15*D15)-(E15*D15)), "")</f>
+        <f>IF(AND( C13="Buy", ISBLANK(W13), B13&lt;&gt;"DIV", NOW()-A13 &lt; 365), (1-Index!$F$2*2)*((J13*D13)-(E13*D13)), "")</f>
         <v/>
       </c>
       <c r="Q28" s="45">
-        <f>IF(AND( C15="Buy", ISBLANK(W15), B15&lt;&gt;"DIV", NOW()-A15 &lt; 365), ((E15*D15)+P15), "")</f>
+        <f>IF(AND( C13="Buy", ISBLANK(W13), B13&lt;&gt;"DIV", NOW()-A13 &lt; 365), ((E13*D13)+P13), "")</f>
         <v/>
       </c>
       <c r="R28" s="45">
-        <f>IF(AND( C15="Buy", ISBLANK(W15), B15&lt;&gt;"DIV", NOW()-A15 &lt; 365), D15, "")</f>
+        <f>IF(AND( C13="Buy", ISBLANK(W13), B13&lt;&gt;"DIV", NOW()-A13 &lt; 365), D13, "")</f>
         <v/>
       </c>
       <c r="S28" s="59">
-        <f>IF(AND( C15="Buy", ISBLANK(W15), B15&lt;&gt;"DIV", NOW()-A15 &gt; 365), T15/sum(F15:I15), "")</f>
+        <f>IF(AND( C13="Buy", ISBLANK(W13), B13&lt;&gt;"DIV", NOW()-A13 &gt; 365), T13/sum(F13:I13), "")</f>
         <v/>
       </c>
       <c r="T28" s="60">
-        <f>IF(AND( C15="Buy", ISBLANK(W15), B15&lt;&gt;"DIV", NOW()-A15 &gt; 365), (1-Index!$F$2*2)*((J15*D15)-(E15*D15)), "")</f>
+        <f>IF(AND( C13="Buy", ISBLANK(W13), B13&lt;&gt;"DIV", NOW()-A13 &gt; 365), (1-Index!$F$2*2)*((J13*D13)-(E13*D13)), "")</f>
         <v/>
       </c>
       <c r="U28" s="60">
-        <f>IF(AND( C15="Buy", ISBLANK(W15), B15&lt;&gt;"DIV", NOW()-A15 &gt; 365), ((E15*D15)+T15), "")</f>
+        <f>IF(AND( C13="Buy", ISBLANK(W13), B13&lt;&gt;"DIV", NOW()-A13 &gt; 365), ((E13*D13)+T13), "")</f>
         <v/>
       </c>
       <c r="V28" s="60">
-        <f>IF(AND( C15="Buy", ISBLANK(W15), B15&lt;&gt;"DIV", NOW()-A15 &gt; 365), D15, "")</f>
+        <f>IF(AND( C13="Buy", ISBLANK(W13), B13&lt;&gt;"DIV", NOW()-A13 &gt; 365), D13, "")</f>
         <v/>
       </c>
       <c r="W28" s="60" t="n"/>
       <c r="X28" s="60" t="n"/>
       <c r="Y28" s="59">
-        <f>IF(AND( C15="Buy", W15&lt;&gt;"", AA15&lt;&gt;"", B15&lt;&gt;"DIV"), Z15/sum(F15:I15), "")</f>
+        <f>IF(AND( C13="Buy", W13&lt;&gt;"", AA13&lt;&gt;"", B13&lt;&gt;"DIV"), Z13/sum(F13:I13), "")</f>
         <v/>
       </c>
       <c r="Z28" s="60" t="n"/>
       <c r="AA28" s="60" t="n"/>
       <c r="AB28" s="61" t="n"/>
       <c r="AC28" s="45">
-        <f>if(B15="DIV", F15,"")</f>
+        <f>if(B13="DIV", F13,"")</f>
         <v/>
       </c>
       <c r="AD28" s="62" t="n"/>
     </row>
     <row r="29">
       <c r="A29" s="63" t="n">
-        <v>45705</v>
+        <v>45712</v>
       </c>
       <c r="B29" s="64" t="inlineStr">
         <is>
-          <t>DIV</t>
+          <t>NSE</t>
         </is>
       </c>
       <c r="C29" s="64" t="inlineStr">
@@ -2719,95 +2591,95 @@
         </is>
       </c>
       <c r="D29" s="52" t="n">
-        <v>200</v>
+        <v>20</v>
       </c>
       <c r="E29" s="43" t="n">
-        <v>1.65</v>
+        <v>155.44</v>
       </c>
       <c r="F29" s="43" t="n">
-        <v>330</v>
+        <v>3108.83</v>
       </c>
       <c r="G29" s="64" t="inlineStr">
         <is>
-          <t>Interim-Dividend of Rs.1.6500/- per share on Ex-Date: 17-FEB-2025</t>
+          <t>~</t>
         </is>
       </c>
       <c r="H29" s="52" t="n">
-        <v>0</v>
+        <v>3.08</v>
       </c>
       <c r="I29" s="52" t="n">
-        <v>0</v>
+        <v>18.75</v>
       </c>
       <c r="J29" s="57">
         <f>Index!$C$2</f>
         <v/>
       </c>
       <c r="K29" s="58">
-        <f>IF(AND( C16="Buy", ISBLANK(W16), B16&lt;&gt;"DIV"), L16/sum(F16:I16), "")</f>
+        <f>IF(AND( C14="Buy", ISBLANK(W14), B14&lt;&gt;"DIV"), L14/sum(F14:I14), "")</f>
         <v/>
       </c>
       <c r="L29" s="45">
-        <f>IF(AND( C16="Buy", ISBLANK(W16), B16&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J16*D16)-(E16*D16)), "")</f>
+        <f>IF(AND( C14="Buy", ISBLANK(W14), B14&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J14*D14)-(E14*D14)), "")</f>
         <v/>
       </c>
       <c r="M29" s="45">
-        <f>IF(AND( C16="Buy", ISBLANK(W16), B16&lt;&gt;"DIV"), ((E16*D16)+L16), "")</f>
+        <f>IF(AND( C14="Buy", ISBLANK(W14), B14&lt;&gt;"DIV"), ((E14*D14)+L14), "")</f>
         <v/>
       </c>
       <c r="N29" s="47">
-        <f>IF(AND( C16="Buy", ISBLANK(W16), B16&lt;&gt;"DIV"), D16, "")</f>
+        <f>IF(AND( C14="Buy", ISBLANK(W14), B14&lt;&gt;"DIV"), D14, "")</f>
         <v/>
       </c>
       <c r="O29" s="58">
-        <f>IF(AND( C16="Buy", ISBLANK(W16), B16&lt;&gt;"DIV", NOW()-A16 &lt; 365), P16/sum(F16:I16), "")</f>
+        <f>IF(AND( C14="Buy", ISBLANK(W14), B14&lt;&gt;"DIV", NOW()-A14 &lt; 365), P14/sum(F14:I14), "")</f>
         <v/>
       </c>
       <c r="P29" s="45">
-        <f>IF(AND( C16="Buy", ISBLANK(W16), B16&lt;&gt;"DIV", NOW()-A16 &lt; 365), (1-Index!$F$2*2)*((J16*D16)-(E16*D16)), "")</f>
+        <f>IF(AND( C14="Buy", ISBLANK(W14), B14&lt;&gt;"DIV", NOW()-A14 &lt; 365), (1-Index!$F$2*2)*((J14*D14)-(E14*D14)), "")</f>
         <v/>
       </c>
       <c r="Q29" s="45">
-        <f>IF(AND( C16="Buy", ISBLANK(W16), B16&lt;&gt;"DIV", NOW()-A16 &lt; 365), ((E16*D16)+P16), "")</f>
+        <f>IF(AND( C14="Buy", ISBLANK(W14), B14&lt;&gt;"DIV", NOW()-A14 &lt; 365), ((E14*D14)+P14), "")</f>
         <v/>
       </c>
       <c r="R29" s="45">
-        <f>IF(AND( C16="Buy", ISBLANK(W16), B16&lt;&gt;"DIV", NOW()-A16 &lt; 365), D16, "")</f>
+        <f>IF(AND( C14="Buy", ISBLANK(W14), B14&lt;&gt;"DIV", NOW()-A14 &lt; 365), D14, "")</f>
         <v/>
       </c>
       <c r="S29" s="59">
-        <f>IF(AND( C16="Buy", ISBLANK(W16), B16&lt;&gt;"DIV", NOW()-A16 &gt; 365), T16/sum(F16:I16), "")</f>
+        <f>IF(AND( C14="Buy", ISBLANK(W14), B14&lt;&gt;"DIV", NOW()-A14 &gt; 365), T14/sum(F14:I14), "")</f>
         <v/>
       </c>
       <c r="T29" s="60">
-        <f>IF(AND( C16="Buy", ISBLANK(W16), B16&lt;&gt;"DIV", NOW()-A16 &gt; 365), (1-Index!$F$2*2)*((J16*D16)-(E16*D16)), "")</f>
+        <f>IF(AND( C14="Buy", ISBLANK(W14), B14&lt;&gt;"DIV", NOW()-A14 &gt; 365), (1-Index!$F$2*2)*((J14*D14)-(E14*D14)), "")</f>
         <v/>
       </c>
       <c r="U29" s="60">
-        <f>IF(AND( C16="Buy", ISBLANK(W16), B16&lt;&gt;"DIV", NOW()-A16 &gt; 365), ((E16*D16)+T16), "")</f>
+        <f>IF(AND( C14="Buy", ISBLANK(W14), B14&lt;&gt;"DIV", NOW()-A14 &gt; 365), ((E14*D14)+T14), "")</f>
         <v/>
       </c>
       <c r="V29" s="60">
-        <f>IF(AND( C16="Buy", ISBLANK(W16), B16&lt;&gt;"DIV", NOW()-A16 &gt; 365), D16, "")</f>
+        <f>IF(AND( C14="Buy", ISBLANK(W14), B14&lt;&gt;"DIV", NOW()-A14 &gt; 365), D14, "")</f>
         <v/>
       </c>
       <c r="W29" s="60" t="n"/>
       <c r="X29" s="60" t="n"/>
       <c r="Y29" s="59">
-        <f>IF(AND( C16="Buy", W16&lt;&gt;"", AA16&lt;&gt;"", B16&lt;&gt;"DIV"), Z16/sum(F16:I16), "")</f>
+        <f>IF(AND( C14="Buy", W14&lt;&gt;"", AA14&lt;&gt;"", B14&lt;&gt;"DIV"), Z14/sum(F14:I14), "")</f>
         <v/>
       </c>
       <c r="Z29" s="60" t="n"/>
       <c r="AA29" s="60" t="n"/>
       <c r="AB29" s="61" t="n"/>
       <c r="AC29" s="45">
-        <f>if(B16="DIV", F16,"")</f>
+        <f>if(B14="DIV", F14,"")</f>
         <v/>
       </c>
       <c r="AD29" s="62" t="n"/>
     </row>
     <row r="30">
       <c r="A30" s="63" t="n">
-        <v>45702</v>
+        <v>45705</v>
       </c>
       <c r="B30" s="64" t="inlineStr">
         <is>
@@ -2823,10 +2695,10 @@
         <v>100</v>
       </c>
       <c r="E30" s="43" t="n">
-        <v>158.86</v>
+        <v>155.09</v>
       </c>
       <c r="F30" s="43" t="n">
-        <v>15885.95</v>
+        <v>15509.13</v>
       </c>
       <c r="G30" s="64" t="inlineStr">
         <is>
@@ -2834,85 +2706,85 @@
         </is>
       </c>
       <c r="H30" s="52" t="n">
-        <v>15.8</v>
+        <v>15.38</v>
       </c>
       <c r="I30" s="52" t="n">
-        <v>96.15000000000001</v>
+        <v>93.75</v>
       </c>
       <c r="J30" s="57">
         <f>Index!$C$2</f>
         <v/>
       </c>
       <c r="K30" s="58">
-        <f>IF(AND( C17="Buy", ISBLANK(W17), B17&lt;&gt;"DIV"), L17/sum(F17:I17), "")</f>
+        <f>IF(AND( C15="Buy", ISBLANK(W15), B15&lt;&gt;"DIV"), L15/sum(F15:I15), "")</f>
         <v/>
       </c>
       <c r="L30" s="45">
-        <f>IF(AND( C17="Buy", ISBLANK(W17), B17&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J17*D17)-(E17*D17)), "")</f>
+        <f>IF(AND( C15="Buy", ISBLANK(W15), B15&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J15*D15)-(E15*D15)), "")</f>
         <v/>
       </c>
       <c r="M30" s="45">
-        <f>IF(AND( C17="Buy", ISBLANK(W17), B17&lt;&gt;"DIV"), ((E17*D17)+L17), "")</f>
+        <f>IF(AND( C15="Buy", ISBLANK(W15), B15&lt;&gt;"DIV"), ((E15*D15)+L15), "")</f>
         <v/>
       </c>
       <c r="N30" s="47">
-        <f>IF(AND( C17="Buy", ISBLANK(W17), B17&lt;&gt;"DIV"), D17, "")</f>
+        <f>IF(AND( C15="Buy", ISBLANK(W15), B15&lt;&gt;"DIV"), D15, "")</f>
         <v/>
       </c>
       <c r="O30" s="58">
-        <f>IF(AND( C17="Buy", ISBLANK(W17), B17&lt;&gt;"DIV", NOW()-A17 &lt; 365), P17/sum(F17:I17), "")</f>
+        <f>IF(AND( C15="Buy", ISBLANK(W15), B15&lt;&gt;"DIV", NOW()-A15 &lt; 365), P15/sum(F15:I15), "")</f>
         <v/>
       </c>
       <c r="P30" s="45">
-        <f>IF(AND( C17="Buy", ISBLANK(W17), B17&lt;&gt;"DIV", NOW()-A17 &lt; 365), (1-Index!$F$2*2)*((J17*D17)-(E17*D17)), "")</f>
+        <f>IF(AND( C15="Buy", ISBLANK(W15), B15&lt;&gt;"DIV", NOW()-A15 &lt; 365), (1-Index!$F$2*2)*((J15*D15)-(E15*D15)), "")</f>
         <v/>
       </c>
       <c r="Q30" s="45">
-        <f>IF(AND( C17="Buy", ISBLANK(W17), B17&lt;&gt;"DIV", NOW()-A17 &lt; 365), ((E17*D17)+P17), "")</f>
+        <f>IF(AND( C15="Buy", ISBLANK(W15), B15&lt;&gt;"DIV", NOW()-A15 &lt; 365), ((E15*D15)+P15), "")</f>
         <v/>
       </c>
       <c r="R30" s="45">
-        <f>IF(AND( C17="Buy", ISBLANK(W17), B17&lt;&gt;"DIV", NOW()-A17 &lt; 365), D17, "")</f>
+        <f>IF(AND( C15="Buy", ISBLANK(W15), B15&lt;&gt;"DIV", NOW()-A15 &lt; 365), D15, "")</f>
         <v/>
       </c>
       <c r="S30" s="59">
-        <f>IF(AND( C17="Buy", ISBLANK(W17), B17&lt;&gt;"DIV", NOW()-A17 &gt; 365), T17/sum(F17:I17), "")</f>
+        <f>IF(AND( C15="Buy", ISBLANK(W15), B15&lt;&gt;"DIV", NOW()-A15 &gt; 365), T15/sum(F15:I15), "")</f>
         <v/>
       </c>
       <c r="T30" s="60">
-        <f>IF(AND( C17="Buy", ISBLANK(W17), B17&lt;&gt;"DIV", NOW()-A17 &gt; 365), (1-Index!$F$2*2)*((J17*D17)-(E17*D17)), "")</f>
+        <f>IF(AND( C15="Buy", ISBLANK(W15), B15&lt;&gt;"DIV", NOW()-A15 &gt; 365), (1-Index!$F$2*2)*((J15*D15)-(E15*D15)), "")</f>
         <v/>
       </c>
       <c r="U30" s="60">
-        <f>IF(AND( C17="Buy", ISBLANK(W17), B17&lt;&gt;"DIV", NOW()-A17 &gt; 365), ((E17*D17)+T17), "")</f>
+        <f>IF(AND( C15="Buy", ISBLANK(W15), B15&lt;&gt;"DIV", NOW()-A15 &gt; 365), ((E15*D15)+T15), "")</f>
         <v/>
       </c>
       <c r="V30" s="60">
-        <f>IF(AND( C17="Buy", ISBLANK(W17), B17&lt;&gt;"DIV", NOW()-A17 &gt; 365), D17, "")</f>
+        <f>IF(AND( C15="Buy", ISBLANK(W15), B15&lt;&gt;"DIV", NOW()-A15 &gt; 365), D15, "")</f>
         <v/>
       </c>
       <c r="W30" s="60" t="n"/>
       <c r="X30" s="60" t="n"/>
       <c r="Y30" s="59">
-        <f>IF(AND( C17="Buy", W17&lt;&gt;"", AA17&lt;&gt;"", B17&lt;&gt;"DIV"), Z17/sum(F17:I17), "")</f>
+        <f>IF(AND( C15="Buy", W15&lt;&gt;"", AA15&lt;&gt;"", B15&lt;&gt;"DIV"), Z15/sum(F15:I15), "")</f>
         <v/>
       </c>
       <c r="Z30" s="60" t="n"/>
       <c r="AA30" s="60" t="n"/>
       <c r="AB30" s="61" t="n"/>
       <c r="AC30" s="45">
-        <f>if(B17="DIV", F17,"")</f>
+        <f>if(B15="DIV", F15,"")</f>
         <v/>
       </c>
       <c r="AD30" s="62" t="n"/>
     </row>
     <row r="31">
       <c r="A31" s="63" t="n">
-        <v>45699</v>
+        <v>45705</v>
       </c>
       <c r="B31" s="64" t="inlineStr">
         <is>
-          <t>NSE</t>
+          <t>DIV</t>
         </is>
       </c>
       <c r="C31" s="64" t="inlineStr">
@@ -2921,123 +2793,293 @@
         </is>
       </c>
       <c r="D31" s="52" t="n">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="E31" s="43" t="n">
-        <v>190.2</v>
+        <v>1.65</v>
       </c>
       <c r="F31" s="43" t="n">
-        <v>19020.28</v>
+        <v>330</v>
       </c>
       <c r="G31" s="64" t="inlineStr">
         <is>
-          <t>~</t>
+          <t>Interim-Dividend of Rs.1.6500/- per share on Ex-Date: 17-FEB-2025</t>
         </is>
       </c>
       <c r="H31" s="52" t="n">
-        <v>18.87</v>
+        <v>0</v>
       </c>
       <c r="I31" s="52" t="n">
-        <v>114.41</v>
+        <v>0</v>
       </c>
       <c r="J31" s="57">
         <f>Index!$C$2</f>
         <v/>
       </c>
       <c r="K31" s="58">
-        <f>IF(AND( C18="Buy", ISBLANK(W18), B18&lt;&gt;"DIV"), L18/sum(F18:I18), "")</f>
+        <f>IF(AND( C16="Buy", ISBLANK(W16), B16&lt;&gt;"DIV"), L16/sum(F16:I16), "")</f>
         <v/>
       </c>
       <c r="L31" s="45">
-        <f>IF(AND( C18="Buy", ISBLANK(W18), B18&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J18*D18)-(E18*D18)), "")</f>
+        <f>IF(AND( C16="Buy", ISBLANK(W16), B16&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J16*D16)-(E16*D16)), "")</f>
         <v/>
       </c>
       <c r="M31" s="45">
-        <f>IF(AND( C18="Buy", ISBLANK(W18), B18&lt;&gt;"DIV"), ((E18*D18)+L18), "")</f>
+        <f>IF(AND( C16="Buy", ISBLANK(W16), B16&lt;&gt;"DIV"), ((E16*D16)+L16), "")</f>
         <v/>
       </c>
       <c r="N31" s="47">
-        <f>IF(AND( C18="Buy", ISBLANK(W18), B18&lt;&gt;"DIV"), D18, "")</f>
+        <f>IF(AND( C16="Buy", ISBLANK(W16), B16&lt;&gt;"DIV"), D16, "")</f>
         <v/>
       </c>
       <c r="O31" s="58">
-        <f>IF(AND( C18="Buy", ISBLANK(W18), B18&lt;&gt;"DIV", NOW()-A18 &lt; 365), P18/sum(F18:I18), "")</f>
+        <f>IF(AND( C16="Buy", ISBLANK(W16), B16&lt;&gt;"DIV", NOW()-A16 &lt; 365), P16/sum(F16:I16), "")</f>
         <v/>
       </c>
       <c r="P31" s="45">
-        <f>IF(AND( C18="Buy", ISBLANK(W18), B18&lt;&gt;"DIV", NOW()-A18 &lt; 365), (1-Index!$F$2*2)*((J18*D18)-(E18*D18)), "")</f>
+        <f>IF(AND( C16="Buy", ISBLANK(W16), B16&lt;&gt;"DIV", NOW()-A16 &lt; 365), (1-Index!$F$2*2)*((J16*D16)-(E16*D16)), "")</f>
         <v/>
       </c>
       <c r="Q31" s="45">
-        <f>IF(AND( C18="Buy", ISBLANK(W18), B18&lt;&gt;"DIV", NOW()-A18 &lt; 365), ((E18*D18)+P18), "")</f>
+        <f>IF(AND( C16="Buy", ISBLANK(W16), B16&lt;&gt;"DIV", NOW()-A16 &lt; 365), ((E16*D16)+P16), "")</f>
         <v/>
       </c>
       <c r="R31" s="45">
-        <f>IF(AND( C18="Buy", ISBLANK(W18), B18&lt;&gt;"DIV", NOW()-A18 &lt; 365), D18, "")</f>
+        <f>IF(AND( C16="Buy", ISBLANK(W16), B16&lt;&gt;"DIV", NOW()-A16 &lt; 365), D16, "")</f>
         <v/>
       </c>
       <c r="S31" s="59">
-        <f>IF(AND( C18="Buy", ISBLANK(W18), B18&lt;&gt;"DIV", NOW()-A18 &gt; 365), T18/sum(F18:I18), "")</f>
+        <f>IF(AND( C16="Buy", ISBLANK(W16), B16&lt;&gt;"DIV", NOW()-A16 &gt; 365), T16/sum(F16:I16), "")</f>
         <v/>
       </c>
       <c r="T31" s="60">
-        <f>IF(AND( C18="Buy", ISBLANK(W18), B18&lt;&gt;"DIV", NOW()-A18 &gt; 365), (1-Index!$F$2*2)*((J18*D18)-(E18*D18)), "")</f>
+        <f>IF(AND( C16="Buy", ISBLANK(W16), B16&lt;&gt;"DIV", NOW()-A16 &gt; 365), (1-Index!$F$2*2)*((J16*D16)-(E16*D16)), "")</f>
         <v/>
       </c>
       <c r="U31" s="60">
-        <f>IF(AND( C18="Buy", ISBLANK(W18), B18&lt;&gt;"DIV", NOW()-A18 &gt; 365), ((E18*D18)+T18), "")</f>
+        <f>IF(AND( C16="Buy", ISBLANK(W16), B16&lt;&gt;"DIV", NOW()-A16 &gt; 365), ((E16*D16)+T16), "")</f>
         <v/>
       </c>
       <c r="V31" s="60">
-        <f>IF(AND( C18="Buy", ISBLANK(W18), B18&lt;&gt;"DIV", NOW()-A18 &gt; 365), D18, "")</f>
+        <f>IF(AND( C16="Buy", ISBLANK(W16), B16&lt;&gt;"DIV", NOW()-A16 &gt; 365), D16, "")</f>
         <v/>
       </c>
       <c r="W31" s="60" t="n"/>
       <c r="X31" s="60" t="n"/>
       <c r="Y31" s="59">
-        <f>IF(AND( C18="Buy", W18&lt;&gt;"", AA18&lt;&gt;"", B18&lt;&gt;"DIV"), Z18/sum(F18:I18), "")</f>
+        <f>IF(AND( C16="Buy", W16&lt;&gt;"", AA16&lt;&gt;"", B16&lt;&gt;"DIV"), Z16/sum(F16:I16), "")</f>
         <v/>
       </c>
       <c r="Z31" s="60" t="n"/>
       <c r="AA31" s="60" t="n"/>
       <c r="AB31" s="61" t="n"/>
       <c r="AC31" s="45">
+        <f>if(B16="DIV", F16,"")</f>
+        <v/>
+      </c>
+      <c r="AD31" s="62" t="n"/>
+    </row>
+    <row r="32">
+      <c r="A32" s="63" t="n">
+        <v>45702</v>
+      </c>
+      <c r="B32" s="64" t="inlineStr">
+        <is>
+          <t>NSE</t>
+        </is>
+      </c>
+      <c r="C32" s="64" t="inlineStr">
+        <is>
+          <t>Buy</t>
+        </is>
+      </c>
+      <c r="D32" s="52" t="n">
+        <v>100</v>
+      </c>
+      <c r="E32" s="43" t="n">
+        <v>158.86</v>
+      </c>
+      <c r="F32" s="43" t="n">
+        <v>15885.95</v>
+      </c>
+      <c r="G32" s="64" t="inlineStr">
+        <is>
+          <t>~</t>
+        </is>
+      </c>
+      <c r="H32" s="52" t="n">
+        <v>15.8</v>
+      </c>
+      <c r="I32" s="52" t="n">
+        <v>96.15000000000001</v>
+      </c>
+      <c r="J32" s="57">
+        <f>Index!$C$2</f>
+        <v/>
+      </c>
+      <c r="K32" s="58">
+        <f>IF(AND( C17="Buy", ISBLANK(W17), B17&lt;&gt;"DIV"), L17/sum(F17:I17), "")</f>
+        <v/>
+      </c>
+      <c r="L32" s="45">
+        <f>IF(AND( C17="Buy", ISBLANK(W17), B17&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J17*D17)-(E17*D17)), "")</f>
+        <v/>
+      </c>
+      <c r="M32" s="45">
+        <f>IF(AND( C17="Buy", ISBLANK(W17), B17&lt;&gt;"DIV"), ((E17*D17)+L17), "")</f>
+        <v/>
+      </c>
+      <c r="N32" s="47">
+        <f>IF(AND( C17="Buy", ISBLANK(W17), B17&lt;&gt;"DIV"), D17, "")</f>
+        <v/>
+      </c>
+      <c r="O32" s="58">
+        <f>IF(AND( C17="Buy", ISBLANK(W17), B17&lt;&gt;"DIV", NOW()-A17 &lt; 365), P17/sum(F17:I17), "")</f>
+        <v/>
+      </c>
+      <c r="P32" s="45">
+        <f>IF(AND( C17="Buy", ISBLANK(W17), B17&lt;&gt;"DIV", NOW()-A17 &lt; 365), (1-Index!$F$2*2)*((J17*D17)-(E17*D17)), "")</f>
+        <v/>
+      </c>
+      <c r="Q32" s="45">
+        <f>IF(AND( C17="Buy", ISBLANK(W17), B17&lt;&gt;"DIV", NOW()-A17 &lt; 365), ((E17*D17)+P17), "")</f>
+        <v/>
+      </c>
+      <c r="R32" s="45">
+        <f>IF(AND( C17="Buy", ISBLANK(W17), B17&lt;&gt;"DIV", NOW()-A17 &lt; 365), D17, "")</f>
+        <v/>
+      </c>
+      <c r="S32" s="59">
+        <f>IF(AND( C17="Buy", ISBLANK(W17), B17&lt;&gt;"DIV", NOW()-A17 &gt; 365), T17/sum(F17:I17), "")</f>
+        <v/>
+      </c>
+      <c r="T32" s="60">
+        <f>IF(AND( C17="Buy", ISBLANK(W17), B17&lt;&gt;"DIV", NOW()-A17 &gt; 365), (1-Index!$F$2*2)*((J17*D17)-(E17*D17)), "")</f>
+        <v/>
+      </c>
+      <c r="U32" s="60">
+        <f>IF(AND( C17="Buy", ISBLANK(W17), B17&lt;&gt;"DIV", NOW()-A17 &gt; 365), ((E17*D17)+T17), "")</f>
+        <v/>
+      </c>
+      <c r="V32" s="60">
+        <f>IF(AND( C17="Buy", ISBLANK(W17), B17&lt;&gt;"DIV", NOW()-A17 &gt; 365), D17, "")</f>
+        <v/>
+      </c>
+      <c r="W32" s="60" t="n"/>
+      <c r="X32" s="60" t="n"/>
+      <c r="Y32" s="59">
+        <f>IF(AND( C17="Buy", W17&lt;&gt;"", AA17&lt;&gt;"", B17&lt;&gt;"DIV"), Z17/sum(F17:I17), "")</f>
+        <v/>
+      </c>
+      <c r="Z32" s="60" t="n"/>
+      <c r="AA32" s="60" t="n"/>
+      <c r="AB32" s="61" t="n"/>
+      <c r="AC32" s="45">
+        <f>if(B17="DIV", F17,"")</f>
+        <v/>
+      </c>
+      <c r="AD32" s="62" t="n"/>
+    </row>
+    <row r="33">
+      <c r="A33" s="63" t="n">
+        <v>45699</v>
+      </c>
+      <c r="B33" s="64" t="inlineStr">
+        <is>
+          <t>NSE</t>
+        </is>
+      </c>
+      <c r="C33" s="64" t="inlineStr">
+        <is>
+          <t>Buy</t>
+        </is>
+      </c>
+      <c r="D33" s="52" t="n">
+        <v>100</v>
+      </c>
+      <c r="E33" s="43" t="n">
+        <v>190.2</v>
+      </c>
+      <c r="F33" s="43" t="n">
+        <v>19020.28</v>
+      </c>
+      <c r="G33" s="64" t="inlineStr">
+        <is>
+          <t>~</t>
+        </is>
+      </c>
+      <c r="H33" s="52" t="n">
+        <v>18.87</v>
+      </c>
+      <c r="I33" s="52" t="n">
+        <v>114.41</v>
+      </c>
+      <c r="J33" s="57">
+        <f>Index!$C$2</f>
+        <v/>
+      </c>
+      <c r="K33" s="58">
+        <f>IF(AND( C18="Buy", ISBLANK(W18), B18&lt;&gt;"DIV"), L18/sum(F18:I18), "")</f>
+        <v/>
+      </c>
+      <c r="L33" s="45">
+        <f>IF(AND( C18="Buy", ISBLANK(W18), B18&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J18*D18)-(E18*D18)), "")</f>
+        <v/>
+      </c>
+      <c r="M33" s="45">
+        <f>IF(AND( C18="Buy", ISBLANK(W18), B18&lt;&gt;"DIV"), ((E18*D18)+L18), "")</f>
+        <v/>
+      </c>
+      <c r="N33" s="47">
+        <f>IF(AND( C18="Buy", ISBLANK(W18), B18&lt;&gt;"DIV"), D18, "")</f>
+        <v/>
+      </c>
+      <c r="O33" s="58">
+        <f>IF(AND( C18="Buy", ISBLANK(W18), B18&lt;&gt;"DIV", NOW()-A18 &lt; 365), P18/sum(F18:I18), "")</f>
+        <v/>
+      </c>
+      <c r="P33" s="45">
+        <f>IF(AND( C18="Buy", ISBLANK(W18), B18&lt;&gt;"DIV", NOW()-A18 &lt; 365), (1-Index!$F$2*2)*((J18*D18)-(E18*D18)), "")</f>
+        <v/>
+      </c>
+      <c r="Q33" s="45">
+        <f>IF(AND( C18="Buy", ISBLANK(W18), B18&lt;&gt;"DIV", NOW()-A18 &lt; 365), ((E18*D18)+P18), "")</f>
+        <v/>
+      </c>
+      <c r="R33" s="45">
+        <f>IF(AND( C18="Buy", ISBLANK(W18), B18&lt;&gt;"DIV", NOW()-A18 &lt; 365), D18, "")</f>
+        <v/>
+      </c>
+      <c r="S33" s="59">
+        <f>IF(AND( C18="Buy", ISBLANK(W18), B18&lt;&gt;"DIV", NOW()-A18 &gt; 365), T18/sum(F18:I18), "")</f>
+        <v/>
+      </c>
+      <c r="T33" s="60">
+        <f>IF(AND( C18="Buy", ISBLANK(W18), B18&lt;&gt;"DIV", NOW()-A18 &gt; 365), (1-Index!$F$2*2)*((J18*D18)-(E18*D18)), "")</f>
+        <v/>
+      </c>
+      <c r="U33" s="60">
+        <f>IF(AND( C18="Buy", ISBLANK(W18), B18&lt;&gt;"DIV", NOW()-A18 &gt; 365), ((E18*D18)+T18), "")</f>
+        <v/>
+      </c>
+      <c r="V33" s="60">
+        <f>IF(AND( C18="Buy", ISBLANK(W18), B18&lt;&gt;"DIV", NOW()-A18 &gt; 365), D18, "")</f>
+        <v/>
+      </c>
+      <c r="W33" s="60" t="n"/>
+      <c r="X33" s="60" t="n"/>
+      <c r="Y33" s="59">
+        <f>IF(AND( C18="Buy", W18&lt;&gt;"", AA18&lt;&gt;"", B18&lt;&gt;"DIV"), Z18/sum(F18:I18), "")</f>
+        <v/>
+      </c>
+      <c r="Z33" s="60" t="n"/>
+      <c r="AA33" s="60" t="n"/>
+      <c r="AB33" s="61" t="n"/>
+      <c r="AC33" s="45">
         <f>if(B18="DIV", F18,"")</f>
         <v/>
       </c>
-      <c r="AD31" s="62" t="n"/>
-    </row>
-    <row r="32">
-      <c r="E32" s="65" t="n"/>
-      <c r="F32" s="65" t="n"/>
-      <c r="G32" s="66" t="n"/>
-      <c r="J32" s="65" t="n"/>
-      <c r="K32" s="65" t="n"/>
-      <c r="L32" s="65" t="n"/>
-      <c r="M32" s="68" t="n"/>
-      <c r="W32" s="65" t="n"/>
-      <c r="X32" s="65" t="n"/>
-      <c r="Y32" s="65" t="n"/>
-      <c r="Z32" s="65" t="n"/>
-      <c r="AA32" s="65" t="n"/>
-      <c r="AB32" s="65" t="n"/>
-      <c r="AC32" s="65" t="n"/>
-    </row>
-    <row r="33">
-      <c r="E33" s="65" t="n"/>
-      <c r="F33" s="65" t="n"/>
-      <c r="G33" s="66" t="n"/>
-      <c r="J33" s="65" t="n"/>
-      <c r="K33" s="65" t="n"/>
-      <c r="L33" s="65" t="n"/>
-      <c r="M33" s="68" t="n"/>
-      <c r="W33" s="65" t="n"/>
-      <c r="X33" s="65" t="n"/>
-      <c r="Y33" s="65" t="n"/>
-      <c r="Z33" s="65" t="n"/>
-      <c r="AA33" s="65" t="n"/>
-      <c r="AB33" s="65" t="n"/>
-      <c r="AC33" s="65" t="n"/>
+      <c r="AD33" s="62" t="n"/>
     </row>
     <row r="34">
       <c r="E34" s="65" t="n"/>
@@ -17990,6 +18032,7 @@
       <c r="J968" s="65" t="n"/>
       <c r="K968" s="65" t="n"/>
       <c r="L968" s="65" t="n"/>
+      <c r="M968" s="68" t="n"/>
       <c r="W968" s="65" t="n"/>
       <c r="X968" s="65" t="n"/>
       <c r="Y968" s="65" t="n"/>
@@ -18005,6 +18048,7 @@
       <c r="J969" s="65" t="n"/>
       <c r="K969" s="65" t="n"/>
       <c r="L969" s="65" t="n"/>
+      <c r="M969" s="68" t="n"/>
       <c r="W969" s="65" t="n"/>
       <c r="X969" s="65" t="n"/>
       <c r="Y969" s="65" t="n"/>
@@ -18237,6 +18281,36 @@
       <c r="AA984" s="65" t="n"/>
       <c r="AB984" s="65" t="n"/>
       <c r="AC984" s="65" t="n"/>
+    </row>
+    <row r="985">
+      <c r="E985" s="65" t="n"/>
+      <c r="F985" s="65" t="n"/>
+      <c r="G985" s="66" t="n"/>
+      <c r="J985" s="65" t="n"/>
+      <c r="K985" s="65" t="n"/>
+      <c r="L985" s="65" t="n"/>
+      <c r="W985" s="65" t="n"/>
+      <c r="X985" s="65" t="n"/>
+      <c r="Y985" s="65" t="n"/>
+      <c r="Z985" s="65" t="n"/>
+      <c r="AA985" s="65" t="n"/>
+      <c r="AB985" s="65" t="n"/>
+      <c r="AC985" s="65" t="n"/>
+    </row>
+    <row r="986">
+      <c r="E986" s="65" t="n"/>
+      <c r="F986" s="65" t="n"/>
+      <c r="G986" s="66" t="n"/>
+      <c r="J986" s="65" t="n"/>
+      <c r="K986" s="65" t="n"/>
+      <c r="L986" s="65" t="n"/>
+      <c r="W986" s="65" t="n"/>
+      <c r="X986" s="65" t="n"/>
+      <c r="Y986" s="65" t="n"/>
+      <c r="Z986" s="65" t="n"/>
+      <c r="AA986" s="65" t="n"/>
+      <c r="AB986" s="65" t="n"/>
+      <c r="AC986" s="65" t="n"/>
     </row>
   </sheetData>
   <autoFilter ref="$A$4:$AO$48"/>
